--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$124</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4887" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="644">
   <si>
     <t>Path</t>
   </si>
@@ -1148,10 +1148,6 @@
     <t>Indicates who or what performed the event.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:actor}
-</t>
-  </si>
-  <si>
     <t>Event.performer</t>
   </si>
   <si>
@@ -1220,7 +1216,7 @@
     <t>MedicationDispense.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner)
 </t>
   </si>
   <si>
@@ -1234,25 +1230,6 @@
   </si>
   <si>
     <t>.role</t>
-  </si>
-  <si>
-    <t>dispensingOrganization</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-performer-organization-nidhi:When an organization is referred to by use of an identifier, the naming system SHOULD be NIHDI number {actor.identifier.exists() implies actor.identifier.system='https://www.ehealth.fgov.be/standards/fhir/NamingSystem/nihdi-organization'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-performer-practitioner-nidhi:When a practitioner is referred to by use of an identifier, the system naming SHOULD be NIHDI number {actor.identifier.exists() implies actor.identifier.system='https://www.ehealth.fgov.be/standards/fhir/NamingSystem/nihdi-practitioner'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner)
-</t>
   </si>
   <si>
     <t>MedicationDispense.location</t>
@@ -2181,7 +2158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN136"/>
+  <dimension ref="A1:AN124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9766,7 +9743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>361</v>
       </c>
@@ -9836,14 +9813,16 @@
         <v>41</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AB67" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>361</v>
@@ -9861,10 +9840,10 @@
         <v>62</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>41</v>
@@ -9878,7 +9857,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9990,7 +9969,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10104,11 +10083,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10130,10 +10109,10 @@
         <v>96</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>99</v>
@@ -10188,7 +10167,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -10220,7 +10199,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10246,14 +10225,14 @@
         <v>140</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -10281,11 +10260,11 @@
         <v>263</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>41</v>
       </c>
@@ -10302,7 +10281,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10320,7 +10299,7 @@
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>41</v>
@@ -10334,7 +10313,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10446,7 +10425,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10560,7 +10539,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10676,7 +10655,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10721,7 +10700,7 @@
         <v>41</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>41</v>
@@ -10792,7 +10771,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10815,13 +10794,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10872,7 +10851,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>50</v>
@@ -10887,28 +10866,26 @@
         <v>62</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AK76" t="s" s="2">
+      <c r="AL76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>393</v>
-      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>41</v>
       </c>
@@ -10920,7 +10897,7 @@
         <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>41</v>
@@ -10929,13 +10906,13 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10986,25 +10963,25 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>394</v>
+        <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>41</v>
@@ -11016,9 +10993,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11029,10 +11006,10 @@
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>41</v>
@@ -11041,15 +11018,17 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>52</v>
+        <v>398</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>120</v>
+        <v>399</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>41</v>
@@ -11098,50 +11077,50 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>122</v>
+        <v>397</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>41</v>
+        <v>402</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>123</v>
+        <v>403</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>41</v>
+        <v>404</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>41</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>41</v>
@@ -11153,17 +11132,15 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>41</v>
@@ -11212,19 +11189,19 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>41</v>
@@ -11244,11 +11221,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>371</v>
+        <v>95</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11261,26 +11238,24 @@
         <v>41</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>372</v>
+        <v>97</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>373</v>
+        <v>125</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N80" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>41</v>
       </c>
@@ -11316,19 +11291,19 @@
         <v>41</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>374</v>
+        <v>128</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -11346,7 +11321,7 @@
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
@@ -11360,7 +11335,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11380,21 +11355,21 @@
         <v>41</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>376</v>
+        <v>311</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>41</v>
       </c>
@@ -11418,13 +11393,13 @@
         <v>41</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>379</v>
+        <v>41</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>380</v>
+        <v>41</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>41</v>
@@ -11442,7 +11417,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>375</v>
+        <v>314</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -11451,7 +11426,7 @@
         <v>50</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>62</v>
@@ -11460,7 +11435,7 @@
         <v>41</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>381</v>
+        <v>93</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>41</v>
@@ -11474,7 +11449,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11482,7 +11457,7 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>50</v>
@@ -11494,18 +11469,20 @@
         <v>41</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>395</v>
+        <v>64</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>389</v>
+        <v>317</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>41</v>
@@ -11530,13 +11507,13 @@
         <v>41</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -11554,10 +11531,10 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>387</v>
+        <v>322</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>50</v>
@@ -11569,10 +11546,10 @@
         <v>62</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>392</v>
+        <v>93</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
@@ -11586,11 +11563,9 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>41</v>
       </c>
@@ -11608,18 +11583,20 @@
         <v>41</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>362</v>
+        <v>108</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>41</v>
@@ -11668,25 +11645,25 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>396</v>
+        <v>62</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
@@ -11698,9 +11675,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11714,24 +11691,26 @@
         <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>120</v>
+        <v>351</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>41</v>
@@ -11780,7 +11759,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>122</v>
+        <v>354</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11792,13 +11771,13 @@
         <v>41</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>41</v>
@@ -11812,18 +11791,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>41</v>
@@ -11835,17 +11814,15 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>97</v>
+        <v>413</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>41</v>
@@ -11870,13 +11847,13 @@
         <v>41</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>41</v>
+        <v>414</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>41</v>
+        <v>415</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>41</v>
@@ -11894,75 +11871,71 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>128</v>
+        <v>412</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>123</v>
+        <v>416</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>41</v>
+        <v>417</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>41</v>
+        <v>418</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>371</v>
+        <v>41</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>96</v>
+        <v>420</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>41</v>
       </c>
@@ -12010,39 +11983,39 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>93</v>
+        <v>423</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>41</v>
+        <v>424</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>41</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12065,18 +12038,16 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>378</v>
-      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>41</v>
       </c>
@@ -12100,13 +12071,13 @@
         <v>41</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>379</v>
+        <v>41</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>380</v>
+        <v>41</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>41</v>
@@ -12124,7 +12095,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -12142,7 +12113,7 @@
         <v>41</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>41</v>
@@ -12151,12 +12122,12 @@
         <v>41</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>41</v>
+        <v>430</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12164,7 +12135,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>50</v>
@@ -12176,16 +12147,16 @@
         <v>41</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12236,10 +12207,10 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>50</v>
@@ -12251,24 +12222,24 @@
         <v>62</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>41</v>
+        <v>436</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>41</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12276,13 +12247,13 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>41</v>
@@ -12291,13 +12262,13 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12348,7 +12319,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -12363,24 +12334,24 @@
         <v>62</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>41</v>
+        <v>436</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>41</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12391,10 +12362,10 @@
         <v>42</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>41</v>
@@ -12403,17 +12374,15 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>41</v>
@@ -12462,13 +12431,13 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>41</v>
@@ -12477,24 +12446,24 @@
         <v>62</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>408</v>
+        <v>41</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>411</v>
+        <v>448</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12505,7 +12474,7 @@
         <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>41</v>
@@ -12517,13 +12486,13 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>52</v>
+        <v>450</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>120</v>
+        <v>451</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>121</v>
+        <v>452</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12574,43 +12543,43 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>122</v>
+        <v>449</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>123</v>
+        <v>453</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>41</v>
+        <v>454</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12620,7 +12589,7 @@
         <v>43</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>41</v>
@@ -12629,17 +12598,15 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>96</v>
+        <v>456</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>97</v>
+        <v>457</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>41</v>
@@ -12676,19 +12643,19 @@
         <v>41</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>128</v>
+        <v>455</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12700,13 +12667,13 @@
         <v>41</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>41</v>
+        <v>459</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>123</v>
+        <v>460</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>41</v>
@@ -12715,12 +12682,12 @@
         <v>41</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>41</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12731,28 +12698,28 @@
         <v>42</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>52</v>
+        <v>463</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>311</v>
+        <v>464</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>312</v>
+        <v>465</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>313</v>
+        <v>466</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12802,16 +12769,16 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>314</v>
+        <v>462</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>62</v>
@@ -12820,7 +12787,7 @@
         <v>41</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>93</v>
+        <v>467</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>41</v>
@@ -12834,7 +12801,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12854,20 +12821,18 @@
         <v>41</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>41</v>
@@ -12892,13 +12857,13 @@
         <v>41</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>41</v>
@@ -12916,7 +12881,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>322</v>
+        <v>122</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12928,13 +12893,13 @@
         <v>41</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>41</v>
@@ -12946,41 +12911,41 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>326</v>
+        <v>99</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13018,37 +12983,37 @@
         <v>41</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>327</v>
+        <v>128</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>328</v>
+        <v>123</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>41</v>
@@ -13060,43 +13025,45 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H96" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>41</v>
       </c>
@@ -13144,19 +13111,19 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>41</v>
@@ -13176,7 +13143,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13196,19 +13163,21 @@
         <v>41</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>140</v>
+        <v>472</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>41</v>
       </c>
@@ -13232,13 +13201,13 @@
         <v>41</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>420</v>
+        <v>41</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>421</v>
+        <v>41</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>41</v>
@@ -13256,7 +13225,7 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -13274,21 +13243,21 @@
         <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>423</v>
+        <v>41</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>424</v>
+        <v>478</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13308,19 +13277,21 @@
         <v>41</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>426</v>
+        <v>52</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+      <c r="N98" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>41</v>
       </c>
@@ -13368,7 +13339,7 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -13386,21 +13357,21 @@
         <v>41</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>430</v>
+        <v>41</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>431</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13411,7 +13382,7 @@
         <v>42</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>41</v>
@@ -13420,19 +13391,23 @@
         <v>41</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>426</v>
+        <v>140</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>41</v>
       </c>
@@ -13456,13 +13431,13 @@
         <v>41</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>41</v>
+        <v>490</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>41</v>
+        <v>491</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>41</v>
@@ -13480,13 +13455,13 @@
         <v>41</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>41</v>
@@ -13498,7 +13473,7 @@
         <v>41</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>41</v>
@@ -13507,12 +13482,12 @@
         <v>41</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>436</v>
+        <v>493</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13526,7 +13501,7 @@
         <v>50</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>41</v>
@@ -13535,13 +13510,13 @@
         <v>51</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>438</v>
+        <v>52</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13592,7 +13567,7 @@
         <v>41</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>437</v>
+        <v>497</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13610,21 +13585,21 @@
         <v>41</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>442</v>
+        <v>41</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>443</v>
+        <v>493</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13632,31 +13607,35 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J101" t="s" s="2">
-        <v>438</v>
+        <v>499</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>41</v>
       </c>
@@ -13704,7 +13683,7 @@
         <v>41</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -13719,24 +13698,24 @@
         <v>62</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>447</v>
+        <v>41</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>442</v>
+        <v>41</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>443</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13756,18 +13735,20 @@
         <v>41</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>399</v>
+        <v>507</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>41</v>
@@ -13792,13 +13773,13 @@
         <v>41</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>41</v>
+        <v>511</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>41</v>
+        <v>512</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>41</v>
@@ -13816,7 +13797,7 @@
         <v>41</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -13834,21 +13815,21 @@
         <v>41</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>453</v>
+        <v>41</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>454</v>
+        <v>515</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13859,7 +13840,7 @@
         <v>42</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>41</v>
@@ -13868,19 +13849,23 @@
         <v>41</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>456</v>
+        <v>140</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>41</v>
       </c>
@@ -13904,13 +13889,13 @@
         <v>41</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>41</v>
+        <v>521</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>41</v>
+        <v>522</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>41</v>
@@ -13928,13 +13913,13 @@
         <v>41</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>41</v>
@@ -13946,21 +13931,21 @@
         <v>41</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>460</v>
+        <v>41</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>41</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>461</v>
+        <v>526</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13971,28 +13956,30 @@
         <v>42</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I104" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J104" t="s" s="2">
-        <v>462</v>
+        <v>140</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>41</v>
       </c>
@@ -14016,13 +14003,13 @@
         <v>41</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>41</v>
+        <v>530</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>41</v>
+        <v>531</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>41</v>
@@ -14040,13 +14027,13 @@
         <v>41</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>41</v>
@@ -14055,10 +14042,10 @@
         <v>62</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>465</v>
+        <v>41</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>466</v>
+        <v>533</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>41</v>
@@ -14067,12 +14054,12 @@
         <v>41</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>467</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>468</v>
+        <v>535</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14083,30 +14070,32 @@
         <v>42</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I105" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J105" t="s" s="2">
-        <v>469</v>
+        <v>140</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>41</v>
       </c>
@@ -14130,13 +14119,13 @@
         <v>41</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>41</v>
+        <v>540</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>41</v>
+        <v>541</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>41</v>
@@ -14154,13 +14143,13 @@
         <v>41</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>468</v>
+        <v>542</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>41</v>
@@ -14172,7 +14161,7 @@
         <v>41</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>473</v>
+        <v>543</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>41</v>
@@ -14181,12 +14170,12 @@
         <v>41</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>41</v>
+        <v>544</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>474</v>
+        <v>545</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14197,7 +14186,7 @@
         <v>42</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>41</v>
@@ -14206,16 +14195,16 @@
         <v>41</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>52</v>
+        <v>546</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>120</v>
+        <v>547</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>121</v>
+        <v>548</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14266,25 +14255,25 @@
         <v>41</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>122</v>
+        <v>549</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>41</v>
@@ -14293,23 +14282,23 @@
         <v>41</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>41</v>
+        <v>550</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>475</v>
+        <v>551</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>41</v>
@@ -14321,17 +14310,15 @@
         <v>41</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>41</v>
@@ -14368,31 +14355,31 @@
         <v>41</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>41</v>
@@ -14412,11 +14399,11 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>476</v>
+        <v>552</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>371</v>
+        <v>95</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14429,26 +14416,24 @@
         <v>41</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>372</v>
+        <v>97</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>373</v>
+        <v>125</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N108" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>41</v>
       </c>
@@ -14484,19 +14469,19 @@
         <v>41</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>374</v>
+        <v>128</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -14514,7 +14499,7 @@
         <v>41</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>41</v>
@@ -14528,7 +14513,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>477</v>
+        <v>553</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14551,17 +14536,17 @@
         <v>51</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>478</v>
+        <v>140</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>479</v>
+        <v>554</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>481</v>
+        <v>556</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>41</v>
@@ -14586,13 +14571,13 @@
         <v>41</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>41</v>
+        <v>557</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>41</v>
+        <v>558</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>41</v>
@@ -14610,7 +14595,7 @@
         <v>41</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>482</v>
+        <v>559</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
@@ -14628,7 +14613,7 @@
         <v>41</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>483</v>
+        <v>41</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>41</v>
@@ -14637,12 +14622,12 @@
         <v>41</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>484</v>
+        <v>560</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>485</v>
+        <v>561</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14656,7 +14641,7 @@
         <v>50</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>41</v>
@@ -14665,17 +14650,19 @@
         <v>51</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>52</v>
+        <v>562</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>486</v>
+        <v>563</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M110" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="N110" t="s" s="2">
-        <v>488</v>
+        <v>566</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>41</v>
@@ -14724,7 +14711,7 @@
         <v>41</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14742,7 +14729,7 @@
         <v>41</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>483</v>
+        <v>543</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>41</v>
@@ -14751,12 +14738,12 @@
         <v>41</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>490</v>
+        <v>568</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>491</v>
+        <v>569</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14767,7 +14754,7 @@
         <v>42</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>41</v>
@@ -14779,19 +14766,19 @@
         <v>51</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>140</v>
+        <v>570</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>492</v>
+        <v>571</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>493</v>
+        <v>572</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>494</v>
+        <v>573</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>495</v>
+        <v>574</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>41</v>
@@ -14816,13 +14803,13 @@
         <v>41</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>496</v>
+        <v>41</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>497</v>
+        <v>41</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>41</v>
@@ -14840,13 +14827,13 @@
         <v>41</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>498</v>
+        <v>575</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>41</v>
@@ -14858,7 +14845,7 @@
         <v>41</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>483</v>
+        <v>576</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>41</v>
@@ -14867,12 +14854,12 @@
         <v>41</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>499</v>
+        <v>577</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14886,7 +14873,7 @@
         <v>50</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>41</v>
@@ -14895,16 +14882,20 @@
         <v>51</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>52</v>
+        <v>579</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>501</v>
+        <v>580</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+        <v>581</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>41</v>
       </c>
@@ -14952,7 +14943,7 @@
         <v>41</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>503</v>
+        <v>584</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
@@ -14970,7 +14961,7 @@
         <v>41</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>483</v>
+        <v>585</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>41</v>
@@ -14979,12 +14970,12 @@
         <v>41</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>499</v>
+        <v>586</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>504</v>
+        <v>587</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15007,19 +14998,19 @@
         <v>51</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>505</v>
+        <v>420</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>506</v>
+        <v>588</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>507</v>
+        <v>589</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>508</v>
+        <v>590</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>509</v>
+        <v>591</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>41</v>
@@ -15068,7 +15059,7 @@
         <v>41</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>510</v>
+        <v>592</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
@@ -15086,7 +15077,7 @@
         <v>41</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>511</v>
+        <v>593</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>41</v>
@@ -15100,7 +15091,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>512</v>
+        <v>594</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15123,18 +15114,18 @@
         <v>51</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>513</v>
+        <v>420</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>514</v>
+        <v>595</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>596</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>41</v>
       </c>
@@ -15158,13 +15149,13 @@
         <v>41</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>517</v>
+        <v>41</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>518</v>
+        <v>41</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>41</v>
@@ -15182,7 +15173,7 @@
         <v>41</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>519</v>
+        <v>598</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
@@ -15200,7 +15191,7 @@
         <v>41</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>41</v>
@@ -15209,12 +15200,12 @@
         <v>41</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>521</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>522</v>
+        <v>599</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15234,23 +15225,19 @@
         <v>41</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>140</v>
+        <v>362</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>523</v>
+        <v>600</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>41</v>
       </c>
@@ -15274,13 +15261,13 @@
         <v>41</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>527</v>
+        <v>41</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>528</v>
+        <v>41</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>41</v>
@@ -15298,7 +15285,7 @@
         <v>41</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>529</v>
+        <v>599</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>42</v>
@@ -15316,21 +15303,21 @@
         <v>41</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>530</v>
+        <v>602</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>41</v>
+        <v>603</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>531</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>532</v>
+        <v>604</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15350,21 +15337,19 @@
         <v>41</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>533</v>
+        <v>120</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>534</v>
+        <v>121</v>
       </c>
       <c r="M116" s="2"/>
-      <c r="N116" t="s" s="2">
-        <v>535</v>
-      </c>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>41</v>
       </c>
@@ -15388,13 +15373,13 @@
         <v>41</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>536</v>
+        <v>41</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>537</v>
+        <v>41</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>41</v>
@@ -15412,7 +15397,7 @@
         <v>41</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>538</v>
+        <v>122</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>42</v>
@@ -15424,13 +15409,13 @@
         <v>41</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>539</v>
+        <v>123</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>41</v>
@@ -15439,23 +15424,23 @@
         <v>41</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>540</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>41</v>
@@ -15464,23 +15449,21 @@
         <v>41</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>542</v>
+        <v>97</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>543</v>
+        <v>125</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>41</v>
       </c>
@@ -15504,13 +15487,13 @@
         <v>41</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>546</v>
+        <v>41</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>547</v>
+        <v>41</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>41</v>
@@ -15528,25 +15511,25 @@
         <v>41</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>548</v>
+        <v>128</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>549</v>
+        <v>123</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>41</v>
@@ -15555,16 +15538,16 @@
         <v>41</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>550</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>551</v>
+        <v>606</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15577,22 +15560,26 @@
         <v>41</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>552</v>
+        <v>96</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>553</v>
+        <v>371</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>41</v>
       </c>
@@ -15640,7 +15627,7 @@
         <v>41</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>555</v>
+        <v>373</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>42</v>
@@ -15652,13 +15639,13 @@
         <v>41</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>41</v>
@@ -15667,12 +15654,12 @@
         <v>41</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>556</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>557</v>
+        <v>607</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15680,7 +15667,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>50</v>
@@ -15695,13 +15682,13 @@
         <v>41</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>120</v>
+        <v>608</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>121</v>
+        <v>609</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15752,10 +15739,10 @@
         <v>41</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>122</v>
+        <v>607</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>50</v>
@@ -15764,13 +15751,13 @@
         <v>41</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>123</v>
+        <v>610</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>41</v>
@@ -15784,18 +15771,18 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>558</v>
+        <v>611</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>41</v>
@@ -15807,17 +15794,15 @@
         <v>41</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>97</v>
+        <v>612</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>41</v>
@@ -15842,63 +15827,63 @@
         <v>41</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>41</v>
+        <v>614</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>41</v>
+        <v>615</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>128</v>
+        <v>611</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>123</v>
+        <v>416</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>41</v>
+        <v>616</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>41</v>
+        <v>617</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15909,7 +15894,7 @@
         <v>42</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>41</v>
@@ -15918,21 +15903,19 @@
         <v>41</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J121" t="s" s="2">
         <v>140</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>560</v>
+        <v>619</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>561</v>
+        <v>620</v>
       </c>
       <c r="M121" s="2"/>
-      <c r="N121" t="s" s="2">
-        <v>562</v>
-      </c>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>41</v>
       </c>
@@ -15959,10 +15942,10 @@
         <v>263</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>41</v>
@@ -15980,13 +15963,13 @@
         <v>41</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>565</v>
+        <v>618</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>41</v>
@@ -15998,21 +15981,21 @@
         <v>41</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>41</v>
+        <v>623</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>41</v>
+        <v>624</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>566</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16023,7 +16006,7 @@
         <v>42</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>41</v>
@@ -16032,23 +16015,19 @@
         <v>41</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>41</v>
       </c>
@@ -16096,13 +16075,13 @@
         <v>41</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>41</v>
@@ -16114,32 +16093,32 @@
         <v>41</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>549</v>
+        <v>629</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>41</v>
+        <v>630</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>574</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>575</v>
+        <v>631</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>41</v>
+        <v>632</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>41</v>
@@ -16148,23 +16127,21 @@
         <v>41</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>576</v>
+        <v>633</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>577</v>
+        <v>634</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>578</v>
+        <v>635</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>41</v>
       </c>
@@ -16212,13 +16189,13 @@
         <v>41</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>581</v>
+        <v>631</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>41</v>
@@ -16230,7 +16207,7 @@
         <v>41</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>582</v>
+        <v>637</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>41</v>
@@ -16239,12 +16216,12 @@
         <v>41</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>583</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>584</v>
+        <v>638</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16255,7 +16232,7 @@
         <v>42</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>41</v>
@@ -16264,23 +16241,21 @@
         <v>41</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>585</v>
+        <v>639</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>586</v>
+        <v>640</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>587</v>
+        <v>641</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>589</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>41</v>
       </c>
@@ -16328,13 +16303,13 @@
         <v>41</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>590</v>
+        <v>638</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>41</v>
@@ -16346,7 +16321,7 @@
         <v>41</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>591</v>
+        <v>643</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>41</v>
@@ -16355,1371 +16330,11 @@
         <v>41</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F128" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F129" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P129" s="2"/>
-      <c r="Q129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F130" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P130" s="2"/>
-      <c r="Q130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F131" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P131" s="2"/>
-      <c r="Q131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F132" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P132" s="2"/>
-      <c r="Q132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F133" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P133" s="2"/>
-      <c r="Q133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F134" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P134" s="2"/>
-      <c r="Q134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F135" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P135" s="2"/>
-      <c r="Q135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F136" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="N136" s="2"/>
-      <c r="O136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P136" s="2"/>
-      <c r="Q136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN136" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN136">
+  <autoFilter ref="A1:AN124">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17729,7 +16344,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI135">
+  <conditionalFormatting sqref="A2:AI123">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="645">
   <si>
     <t>Path</t>
   </si>
@@ -1066,6 +1066,9 @@
   </si>
   <si>
     <t>MedicationDispense.context.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>https://www.gfd-dpp.be/fhir/reference/identifier_types</t>
   </si>
   <si>
     <t>MedicationDispense.context.identifier.type.coding.version</t>
@@ -8418,7 +8421,7 @@
         <v>41</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>41</v>
@@ -8489,7 +8492,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8603,7 +8606,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8646,7 +8649,7 @@
         <v>41</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>41</v>
@@ -8717,7 +8720,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8831,7 +8834,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8947,7 +8950,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9063,7 +9066,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9108,7 +9111,7 @@
         <v>41</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>216</v>
@@ -9179,7 +9182,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9293,7 +9296,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9405,7 +9408,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9519,7 +9522,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9545,13 +9548,13 @@
         <v>52</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9601,7 +9604,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9633,7 +9636,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9656,13 +9659,13 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9713,7 +9716,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9731,10 +9734,10 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
@@ -9745,7 +9748,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9768,13 +9771,13 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9825,7 +9828,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9840,10 +9843,10 @@
         <v>62</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>41</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9969,7 +9972,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10083,11 +10086,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10109,10 +10112,10 @@
         <v>96</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>99</v>
@@ -10167,7 +10170,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -10199,7 +10202,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10225,14 +10228,14 @@
         <v>140</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -10260,10 +10263,10 @@
         <v>263</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>41</v>
@@ -10281,7 +10284,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10299,7 +10302,7 @@
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>41</v>
@@ -10313,7 +10316,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10425,7 +10428,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10539,7 +10542,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10655,7 +10658,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10700,7 +10703,7 @@
         <v>41</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>41</v>
@@ -10771,7 +10774,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10794,13 +10797,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10851,7 +10854,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>50</v>
@@ -10866,10 +10869,10 @@
         <v>62</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>41</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10906,13 +10909,13 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10963,7 +10966,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10981,7 +10984,7 @@
         <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>41</v>
@@ -10995,7 +10998,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11018,16 +11021,16 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11077,7 +11080,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -11092,24 +11095,24 @@
         <v>62</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11221,7 +11224,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11335,7 +11338,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11449,7 +11452,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11563,7 +11566,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11677,7 +11680,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11703,13 +11706,13 @@
         <v>52</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11759,7 +11762,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11817,10 +11820,10 @@
         <v>140</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11850,10 +11853,10 @@
         <v>263</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>41</v>
@@ -11871,7 +11874,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11889,21 +11892,21 @@
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11926,13 +11929,13 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11983,7 +11986,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -12001,21 +12004,21 @@
         <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12038,13 +12041,13 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12095,7 +12098,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -12113,7 +12116,7 @@
         <v>41</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>41</v>
@@ -12122,12 +12125,12 @@
         <v>41</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12150,13 +12153,13 @@
         <v>51</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12207,7 +12210,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -12225,21 +12228,21 @@
         <v>41</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12262,13 +12265,13 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12319,7 +12322,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -12334,24 +12337,24 @@
         <v>62</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12374,13 +12377,13 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12431,7 +12434,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12449,21 +12452,21 @@
         <v>41</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12486,13 +12489,13 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12543,7 +12546,7 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12561,13 +12564,13 @@
         <v>41</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>41</v>
@@ -12575,7 +12578,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12598,13 +12601,13 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12655,7 +12658,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12670,10 +12673,10 @@
         <v>62</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>41</v>
@@ -12682,12 +12685,12 @@
         <v>41</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12710,16 +12713,16 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12769,7 +12772,7 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12787,7 +12790,7 @@
         <v>41</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>41</v>
@@ -12801,7 +12804,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12913,7 +12916,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13027,11 +13030,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13053,10 +13056,10 @@
         <v>96</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>99</v>
@@ -13111,7 +13114,7 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -13143,7 +13146,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13166,17 +13169,17 @@
         <v>51</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>41</v>
@@ -13225,7 +13228,7 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -13243,7 +13246,7 @@
         <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>41</v>
@@ -13252,12 +13255,12 @@
         <v>41</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13283,14 +13286,14 @@
         <v>52</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>41</v>
@@ -13339,7 +13342,7 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -13357,7 +13360,7 @@
         <v>41</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>41</v>
@@ -13366,12 +13369,12 @@
         <v>41</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13397,16 +13400,16 @@
         <v>140</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>41</v>
@@ -13434,10 +13437,10 @@
         <v>263</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>41</v>
@@ -13455,7 +13458,7 @@
         <v>41</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -13473,7 +13476,7 @@
         <v>41</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>41</v>
@@ -13482,12 +13485,12 @@
         <v>41</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13513,10 +13516,10 @@
         <v>52</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13567,7 +13570,7 @@
         <v>41</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13585,7 +13588,7 @@
         <v>41</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>41</v>
@@ -13594,12 +13597,12 @@
         <v>41</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13622,19 +13625,19 @@
         <v>51</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>41</v>
@@ -13683,7 +13686,7 @@
         <v>41</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -13701,7 +13704,7 @@
         <v>41</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>41</v>
@@ -13715,7 +13718,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13738,16 +13741,16 @@
         <v>51</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13776,10 +13779,10 @@
         <v>263</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>41</v>
@@ -13797,7 +13800,7 @@
         <v>41</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -13815,7 +13818,7 @@
         <v>41</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>41</v>
@@ -13824,12 +13827,12 @@
         <v>41</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13855,16 +13858,16 @@
         <v>140</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>41</v>
@@ -13892,10 +13895,10 @@
         <v>263</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>41</v>
@@ -13913,7 +13916,7 @@
         <v>41</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -13931,7 +13934,7 @@
         <v>41</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>41</v>
@@ -13940,12 +13943,12 @@
         <v>41</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13971,14 +13974,14 @@
         <v>140</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>41</v>
@@ -14006,10 +14009,10 @@
         <v>263</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>41</v>
@@ -14027,7 +14030,7 @@
         <v>41</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
@@ -14045,7 +14048,7 @@
         <v>41</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>41</v>
@@ -14054,12 +14057,12 @@
         <v>41</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14085,16 +14088,16 @@
         <v>140</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>41</v>
@@ -14122,10 +14125,10 @@
         <v>263</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>41</v>
@@ -14143,7 +14146,7 @@
         <v>41</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
@@ -14161,7 +14164,7 @@
         <v>41</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>41</v>
@@ -14170,12 +14173,12 @@
         <v>41</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14198,13 +14201,13 @@
         <v>51</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14255,7 +14258,7 @@
         <v>41</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
@@ -14282,12 +14285,12 @@
         <v>41</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14399,7 +14402,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14513,7 +14516,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14539,14 +14542,14 @@
         <v>140</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>41</v>
@@ -14574,10 +14577,10 @@
         <v>263</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>41</v>
@@ -14595,7 +14598,7 @@
         <v>41</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
@@ -14622,12 +14625,12 @@
         <v>41</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14650,19 +14653,19 @@
         <v>51</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>41</v>
@@ -14711,7 +14714,7 @@
         <v>41</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14729,7 +14732,7 @@
         <v>41</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>41</v>
@@ -14738,12 +14741,12 @@
         <v>41</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14766,19 +14769,19 @@
         <v>51</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>41</v>
@@ -14827,7 +14830,7 @@
         <v>41</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
@@ -14845,7 +14848,7 @@
         <v>41</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>41</v>
@@ -14854,12 +14857,12 @@
         <v>41</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14882,19 +14885,19 @@
         <v>51</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>41</v>
@@ -14943,7 +14946,7 @@
         <v>41</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
@@ -14961,7 +14964,7 @@
         <v>41</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>41</v>
@@ -14970,12 +14973,12 @@
         <v>41</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14998,19 +15001,19 @@
         <v>51</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>41</v>
@@ -15059,7 +15062,7 @@
         <v>41</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
@@ -15077,7 +15080,7 @@
         <v>41</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>41</v>
@@ -15091,7 +15094,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15114,17 +15117,17 @@
         <v>51</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>41</v>
@@ -15173,7 +15176,7 @@
         <v>41</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
@@ -15191,7 +15194,7 @@
         <v>41</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>41</v>
@@ -15205,7 +15208,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15228,13 +15231,13 @@
         <v>41</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -15285,7 +15288,7 @@
         <v>41</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>42</v>
@@ -15303,13 +15306,13 @@
         <v>41</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>41</v>
@@ -15317,7 +15320,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15429,7 +15432,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15543,11 +15546,11 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15569,10 +15572,10 @@
         <v>96</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>99</v>
@@ -15627,7 +15630,7 @@
         <v>41</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>42</v>
@@ -15659,7 +15662,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15685,10 +15688,10 @@
         <v>194</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15739,7 +15742,7 @@
         <v>41</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>50</v>
@@ -15757,7 +15760,7 @@
         <v>41</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>41</v>
@@ -15771,7 +15774,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15797,10 +15800,10 @@
         <v>140</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -15830,10 +15833,10 @@
         <v>263</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>41</v>
@@ -15851,7 +15854,7 @@
         <v>41</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
@@ -15869,21 +15872,21 @@
         <v>41</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15909,10 +15912,10 @@
         <v>140</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15942,10 +15945,10 @@
         <v>263</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>41</v>
@@ -15963,7 +15966,7 @@
         <v>41</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
@@ -15981,13 +15984,13 @@
         <v>41</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>41</v>
@@ -15995,7 +15998,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16018,13 +16021,13 @@
         <v>41</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16075,7 +16078,7 @@
         <v>41</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
@@ -16093,13 +16096,13 @@
         <v>41</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>41</v>
@@ -16107,11 +16110,11 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16130,16 +16133,16 @@
         <v>41</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16189,7 +16192,7 @@
         <v>41</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
@@ -16207,7 +16210,7 @@
         <v>41</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>41</v>
@@ -16221,7 +16224,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16244,16 +16247,16 @@
         <v>41</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16303,7 +16306,7 @@
         <v>41</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
@@ -16321,7 +16324,7 @@
         <v>41</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$136</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4887" uniqueCount="650">
   <si>
     <t>Path</t>
   </si>
@@ -1068,9 +1068,6 @@
     <t>MedicationDispense.context.identifier.type.coding.system</t>
   </si>
   <si>
-    <t>https://www.gfd-dpp.be/fhir/reference/identifier_types</t>
-  </si>
-  <si>
     <t>MedicationDispense.context.identifier.type.coding.version</t>
   </si>
   <si>
@@ -1151,6 +1148,10 @@
     <t>Indicates who or what performed the event.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:actor}
+</t>
+  </si>
+  <si>
     <t>Event.performer</t>
   </si>
   <si>
@@ -1219,7 +1220,7 @@
     <t>MedicationDispense.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1233,6 +1234,25 @@
   </si>
   <si>
     <t>.role</t>
+  </si>
+  <si>
+    <t>dispensingOrganization</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+performer-organization-nidhi:When an organization is referred to by use of an identifier, the naming system SHOULD be NIHDI number {actor.identifier.exists() implies actor.identifier.system='https://www.ehealth.fgov.be/standards/fhir/NamingSystem/nihdi-organization'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+performer-practitioner-nidhi:When a practitioner is referred to by use of an identifier, the system naming SHOULD be NIHDI number {actor.identifier.exists() implies actor.identifier.system='https://www.ehealth.fgov.be/standards/fhir/NamingSystem/nihdi-practitioner'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner)
+</t>
   </si>
   <si>
     <t>MedicationDispense.location</t>
@@ -2161,7 +2181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN124"/>
+  <dimension ref="A1:AN136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8421,7 +8441,7 @@
         <v>41</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>41</v>
@@ -8492,7 +8512,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8606,7 +8626,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8649,7 +8669,7 @@
         <v>41</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>41</v>
@@ -8720,7 +8740,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8834,7 +8854,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8950,7 +8970,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9066,7 +9086,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9111,7 +9131,7 @@
         <v>41</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>216</v>
@@ -9182,7 +9202,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9296,7 +9316,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9408,7 +9428,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9522,7 +9542,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9548,13 +9568,13 @@
         <v>52</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9604,7 +9624,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9636,7 +9656,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9659,13 +9679,13 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9716,7 +9736,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9734,21 +9754,21 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9771,13 +9791,13 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9816,19 +9836,17 @@
         <v>41</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="AB67" s="2"/>
       <c r="AC67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -10884,11 +10902,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>41</v>
       </c>
@@ -10900,7 +10920,7 @@
         <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>41</v>
@@ -10909,13 +10929,13 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10966,25 +10986,25 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>62</v>
+        <v>394</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>41</v>
@@ -10996,9 +11016,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11009,10 +11029,10 @@
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>41</v>
@@ -11021,17 +11041,15 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>399</v>
+        <v>52</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>41</v>
@@ -11080,50 +11098,50 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>398</v>
+        <v>122</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>403</v>
+        <v>41</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>404</v>
+        <v>123</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>405</v>
+        <v>41</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>406</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>41</v>
@@ -11135,15 +11153,17 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>41</v>
@@ -11192,19 +11212,19 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>41</v>
@@ -11224,11 +11244,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>95</v>
+        <v>371</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11241,24 +11261,26 @@
         <v>41</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>97</v>
+        <v>372</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>125</v>
+        <v>373</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>41</v>
       </c>
@@ -11294,19 +11316,19 @@
         <v>41</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>128</v>
+        <v>374</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -11324,7 +11346,7 @@
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
@@ -11338,7 +11360,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11358,21 +11380,21 @@
         <v>41</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>41</v>
       </c>
@@ -11396,13 +11418,13 @@
         <v>41</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>41</v>
@@ -11420,7 +11442,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -11429,7 +11451,7 @@
         <v>50</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>62</v>
@@ -11438,7 +11460,7 @@
         <v>41</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>93</v>
+        <v>381</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>41</v>
@@ -11452,7 +11474,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11460,7 +11482,7 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>50</v>
@@ -11472,20 +11494,18 @@
         <v>41</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>64</v>
+        <v>395</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>317</v>
+        <v>389</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>41</v>
@@ -11510,13 +11530,13 @@
         <v>41</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -11534,10 +11554,10 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>322</v>
+        <v>387</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>50</v>
@@ -11549,10 +11569,10 @@
         <v>62</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>41</v>
+        <v>391</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>93</v>
+        <v>392</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
@@ -11566,9 +11586,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B83" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="C83" t="s" s="2">
         <v>41</v>
       </c>
@@ -11586,20 +11608,18 @@
         <v>41</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>108</v>
+        <v>362</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>41</v>
@@ -11648,25 +11668,25 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>62</v>
+        <v>396</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
@@ -11678,9 +11698,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11694,26 +11714,24 @@
         <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>352</v>
+        <v>120</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>41</v>
@@ -11762,7 +11780,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>355</v>
+        <v>122</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11774,13 +11792,13 @@
         <v>41</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>41</v>
@@ -11794,18 +11812,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>41</v>
@@ -11817,15 +11835,17 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>414</v>
+        <v>97</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>41</v>
@@ -11850,13 +11870,13 @@
         <v>41</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>415</v>
+        <v>41</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>416</v>
+        <v>41</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>41</v>
@@ -11874,71 +11894,75 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>413</v>
+        <v>128</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>417</v>
+        <v>123</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>418</v>
+        <v>41</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>41</v>
+        <v>371</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H86" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H86" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I86" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>421</v>
+        <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>41</v>
       </c>
@@ -11986,39 +12010,39 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>424</v>
+        <v>93</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>425</v>
+        <v>41</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>426</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12041,16 +12065,18 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>421</v>
+        <v>140</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>429</v>
+        <v>377</v>
       </c>
       <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>41</v>
       </c>
@@ -12074,13 +12100,13 @@
         <v>41</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>41</v>
@@ -12098,7 +12124,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -12116,7 +12142,7 @@
         <v>41</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>41</v>
@@ -12125,12 +12151,12 @@
         <v>41</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>431</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12138,7 +12164,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>50</v>
@@ -12150,16 +12176,16 @@
         <v>41</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12210,10 +12236,10 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>50</v>
@@ -12225,24 +12251,24 @@
         <v>62</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>41</v>
+        <v>391</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>437</v>
+        <v>41</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>438</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12250,13 +12276,13 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>41</v>
@@ -12265,13 +12291,13 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12322,7 +12348,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -12337,24 +12363,24 @@
         <v>62</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>442</v>
+        <v>41</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>437</v>
+        <v>41</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>438</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12365,10 +12391,10 @@
         <v>42</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>41</v>
@@ -12377,15 +12403,17 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>41</v>
@@ -12434,13 +12462,13 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>41</v>
@@ -12449,24 +12477,24 @@
         <v>62</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>41</v>
+        <v>408</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>449</v>
+        <v>411</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12477,7 +12505,7 @@
         <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>41</v>
@@ -12489,13 +12517,13 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>451</v>
+        <v>52</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>452</v>
+        <v>120</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>453</v>
+        <v>121</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12546,43 +12574,43 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>450</v>
+        <v>122</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>454</v>
+        <v>123</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>455</v>
+        <v>41</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>456</v>
+        <v>413</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12592,7 +12620,7 @@
         <v>43</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>41</v>
@@ -12601,15 +12629,17 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>457</v>
+        <v>96</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>458</v>
+        <v>97</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>41</v>
@@ -12646,19 +12676,19 @@
         <v>41</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>456</v>
+        <v>128</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12670,13 +12700,13 @@
         <v>41</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>460</v>
+        <v>41</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>461</v>
+        <v>123</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>41</v>
@@ -12685,12 +12715,12 @@
         <v>41</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>462</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12701,28 +12731,28 @@
         <v>42</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I93" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J93" t="s" s="2">
-        <v>464</v>
+        <v>52</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>465</v>
+        <v>311</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>466</v>
+        <v>312</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>467</v>
+        <v>313</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12772,16 +12802,16 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>463</v>
+        <v>314</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>62</v>
@@ -12790,7 +12820,7 @@
         <v>41</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>468</v>
+        <v>93</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>41</v>
@@ -12804,7 +12834,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>469</v>
+        <v>415</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12824,18 +12854,20 @@
         <v>41</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>41</v>
@@ -12860,13 +12892,13 @@
         <v>41</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>41</v>
@@ -12884,7 +12916,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>122</v>
+        <v>322</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12896,13 +12928,13 @@
         <v>41</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>41</v>
@@ -12914,41 +12946,41 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>470</v>
+        <v>416</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>97</v>
+        <v>324</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>125</v>
+        <v>325</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>99</v>
+        <v>326</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12986,37 +13018,37 @@
         <v>41</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>128</v>
+        <v>327</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>123</v>
+        <v>328</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>41</v>
@@ -13028,45 +13060,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>471</v>
+        <v>417</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>371</v>
+        <v>41</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>41</v>
       </c>
@@ -13114,19 +13144,19 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>41</v>
@@ -13146,7 +13176,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>472</v>
+        <v>418</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13166,21 +13196,19 @@
         <v>41</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>473</v>
+        <v>140</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>474</v>
+        <v>419</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="M97" s="2"/>
-      <c r="N97" t="s" s="2">
-        <v>476</v>
-      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>41</v>
       </c>
@@ -13204,13 +13232,13 @@
         <v>41</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>41</v>
+        <v>420</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>41</v>
@@ -13228,7 +13256,7 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>477</v>
+        <v>418</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -13246,21 +13274,21 @@
         <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>478</v>
+        <v>422</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>41</v>
+        <v>423</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>479</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13280,21 +13308,19 @@
         <v>41</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>52</v>
+        <v>426</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>481</v>
+        <v>427</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>482</v>
+        <v>428</v>
       </c>
       <c r="M98" s="2"/>
-      <c r="N98" t="s" s="2">
-        <v>483</v>
-      </c>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>41</v>
       </c>
@@ -13342,7 +13368,7 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>484</v>
+        <v>425</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -13360,21 +13386,21 @@
         <v>41</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>478</v>
+        <v>429</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>485</v>
+        <v>431</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>486</v>
+        <v>432</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13385,7 +13411,7 @@
         <v>42</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>41</v>
@@ -13394,23 +13420,19 @@
         <v>41</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>140</v>
+        <v>426</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>487</v>
+        <v>433</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>41</v>
       </c>
@@ -13434,13 +13456,13 @@
         <v>41</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>491</v>
+        <v>41</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>492</v>
+        <v>41</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>41</v>
@@ -13458,13 +13480,13 @@
         <v>41</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>493</v>
+        <v>432</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>41</v>
@@ -13476,7 +13498,7 @@
         <v>41</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>478</v>
+        <v>435</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>41</v>
@@ -13485,12 +13507,12 @@
         <v>41</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>494</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13504,7 +13526,7 @@
         <v>50</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>41</v>
@@ -13513,13 +13535,13 @@
         <v>51</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>52</v>
+        <v>438</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>496</v>
+        <v>439</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13570,7 +13592,7 @@
         <v>41</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>498</v>
+        <v>437</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13588,21 +13610,21 @@
         <v>41</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>41</v>
+        <v>442</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>494</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13610,35 +13632,31 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>41</v>
       </c>
@@ -13686,7 +13704,7 @@
         <v>41</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>505</v>
+        <v>444</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -13701,24 +13719,24 @@
         <v>62</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>41</v>
+        <v>447</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>41</v>
+        <v>442</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>41</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>507</v>
+        <v>449</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13738,20 +13756,18 @@
         <v>41</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>508</v>
+        <v>399</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>509</v>
+        <v>450</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>41</v>
@@ -13776,13 +13792,13 @@
         <v>41</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>512</v>
+        <v>41</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>513</v>
+        <v>41</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>41</v>
@@ -13800,7 +13816,7 @@
         <v>41</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>514</v>
+        <v>449</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -13818,21 +13834,21 @@
         <v>41</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>515</v>
+        <v>452</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>41</v>
+        <v>453</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>516</v>
+        <v>454</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>517</v>
+        <v>455</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13843,7 +13859,7 @@
         <v>42</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>41</v>
@@ -13852,23 +13868,19 @@
         <v>41</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>140</v>
+        <v>456</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>518</v>
+        <v>457</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>41</v>
       </c>
@@ -13892,13 +13904,13 @@
         <v>41</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>522</v>
+        <v>41</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>523</v>
+        <v>41</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>41</v>
@@ -13916,13 +13928,13 @@
         <v>41</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>524</v>
+        <v>455</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>41</v>
@@ -13934,21 +13946,21 @@
         <v>41</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>525</v>
+        <v>459</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>41</v>
+        <v>460</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>526</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13959,30 +13971,28 @@
         <v>42</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>140</v>
+        <v>462</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>529</v>
+        <v>464</v>
       </c>
       <c r="M104" s="2"/>
-      <c r="N104" t="s" s="2">
-        <v>530</v>
-      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>41</v>
       </c>
@@ -14006,13 +14016,13 @@
         <v>41</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>531</v>
+        <v>41</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>532</v>
+        <v>41</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>41</v>
@@ -14030,13 +14040,13 @@
         <v>41</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>533</v>
+        <v>461</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>41</v>
@@ -14045,10 +14055,10 @@
         <v>62</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>41</v>
+        <v>465</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>534</v>
+        <v>466</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>41</v>
@@ -14057,12 +14067,12 @@
         <v>41</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>535</v>
+        <v>467</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
-        <v>536</v>
+        <v>468</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14073,32 +14083,30 @@
         <v>42</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>140</v>
+        <v>469</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>537</v>
+        <v>470</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>538</v>
+        <v>471</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>41</v>
       </c>
@@ -14122,13 +14130,13 @@
         <v>41</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>541</v>
+        <v>41</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>542</v>
+        <v>41</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>41</v>
@@ -14146,13 +14154,13 @@
         <v>41</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>543</v>
+        <v>468</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>41</v>
@@ -14164,7 +14172,7 @@
         <v>41</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>544</v>
+        <v>473</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>41</v>
@@ -14173,12 +14181,12 @@
         <v>41</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>545</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>546</v>
+        <v>474</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14189,7 +14197,7 @@
         <v>42</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>41</v>
@@ -14198,16 +14206,16 @@
         <v>41</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>547</v>
+        <v>52</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>548</v>
+        <v>120</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>549</v>
+        <v>121</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14258,25 +14266,25 @@
         <v>41</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>550</v>
+        <v>122</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>41</v>
@@ -14285,23 +14293,23 @@
         <v>41</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>551</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>552</v>
+        <v>475</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>41</v>
@@ -14313,15 +14321,17 @@
         <v>41</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>41</v>
@@ -14358,31 +14368,31 @@
         <v>41</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>41</v>
@@ -14402,11 +14412,11 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>95</v>
+        <v>371</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14419,24 +14429,26 @@
         <v>41</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>97</v>
+        <v>372</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>125</v>
+        <v>373</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N108" s="2"/>
+      <c r="N108" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>41</v>
       </c>
@@ -14472,19 +14484,19 @@
         <v>41</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>128</v>
+        <v>374</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -14502,7 +14514,7 @@
         <v>41</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>41</v>
@@ -14516,7 +14528,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14539,17 +14551,17 @@
         <v>51</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>140</v>
+        <v>478</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>555</v>
+        <v>479</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>556</v>
+        <v>480</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>557</v>
+        <v>481</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>41</v>
@@ -14574,13 +14586,13 @@
         <v>41</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>558</v>
+        <v>41</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>559</v>
+        <v>41</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>41</v>
@@ -14598,7 +14610,7 @@
         <v>41</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>560</v>
+        <v>482</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
@@ -14616,7 +14628,7 @@
         <v>41</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>41</v>
+        <v>483</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>41</v>
@@ -14625,12 +14637,12 @@
         <v>41</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>561</v>
+        <v>484</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
-        <v>562</v>
+        <v>485</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14644,7 +14656,7 @@
         <v>50</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>41</v>
@@ -14653,19 +14665,17 @@
         <v>51</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>563</v>
+        <v>52</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>564</v>
+        <v>486</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>567</v>
+        <v>488</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>41</v>
@@ -14714,7 +14724,7 @@
         <v>41</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>568</v>
+        <v>489</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14732,7 +14742,7 @@
         <v>41</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>544</v>
+        <v>483</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>41</v>
@@ -14741,12 +14751,12 @@
         <v>41</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>569</v>
+        <v>490</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>570</v>
+        <v>491</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14757,7 +14767,7 @@
         <v>42</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>41</v>
@@ -14769,19 +14779,19 @@
         <v>51</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>571</v>
+        <v>140</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>572</v>
+        <v>492</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>574</v>
+        <v>494</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>575</v>
+        <v>495</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>41</v>
@@ -14806,13 +14816,13 @@
         <v>41</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>41</v>
+        <v>496</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>41</v>
+        <v>497</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>41</v>
@@ -14830,13 +14840,13 @@
         <v>41</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>576</v>
+        <v>498</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>41</v>
@@ -14848,7 +14858,7 @@
         <v>41</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>577</v>
+        <v>483</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>41</v>
@@ -14857,12 +14867,12 @@
         <v>41</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>578</v>
+        <v>499</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
-        <v>579</v>
+        <v>500</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14876,7 +14886,7 @@
         <v>50</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>41</v>
@@ -14885,20 +14895,16 @@
         <v>51</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>580</v>
+        <v>52</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>581</v>
+        <v>501</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>41</v>
       </c>
@@ -14946,7 +14952,7 @@
         <v>41</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>585</v>
+        <v>503</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
@@ -14964,7 +14970,7 @@
         <v>41</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>586</v>
+        <v>483</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>41</v>
@@ -14973,12 +14979,12 @@
         <v>41</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>587</v>
+        <v>499</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>588</v>
+        <v>504</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15001,19 +15007,19 @@
         <v>51</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>421</v>
+        <v>505</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>589</v>
+        <v>506</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>590</v>
+        <v>507</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>591</v>
+        <v>508</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>592</v>
+        <v>509</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>41</v>
@@ -15062,7 +15068,7 @@
         <v>41</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>593</v>
+        <v>510</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
@@ -15080,7 +15086,7 @@
         <v>41</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>594</v>
+        <v>511</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>41</v>
@@ -15094,7 +15100,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>595</v>
+        <v>512</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15117,18 +15123,18 @@
         <v>51</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>421</v>
+        <v>513</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>596</v>
+        <v>514</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>41</v>
       </c>
@@ -15152,13 +15158,13 @@
         <v>41</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>41</v>
+        <v>517</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>41</v>
+        <v>518</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>41</v>
@@ -15176,7 +15182,7 @@
         <v>41</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>599</v>
+        <v>519</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
@@ -15194,7 +15200,7 @@
         <v>41</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>594</v>
+        <v>520</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>41</v>
@@ -15203,12 +15209,12 @@
         <v>41</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>41</v>
+        <v>521</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>600</v>
+        <v>522</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15228,19 +15234,23 @@
         <v>41</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>363</v>
+        <v>140</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>601</v>
+        <v>523</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>41</v>
       </c>
@@ -15264,13 +15274,13 @@
         <v>41</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>41</v>
+        <v>527</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>41</v>
+        <v>528</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>41</v>
@@ -15288,7 +15298,7 @@
         <v>41</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>600</v>
+        <v>529</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>42</v>
@@ -15306,21 +15316,21 @@
         <v>41</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>603</v>
+        <v>530</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>604</v>
+        <v>41</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>41</v>
+        <v>531</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>605</v>
+        <v>532</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15340,19 +15350,21 @@
         <v>41</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>120</v>
+        <v>533</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>121</v>
+        <v>534</v>
       </c>
       <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+      <c r="N116" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>41</v>
       </c>
@@ -15376,13 +15388,13 @@
         <v>41</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>41</v>
+        <v>536</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>41</v>
+        <v>537</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>41</v>
@@ -15400,7 +15412,7 @@
         <v>41</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>122</v>
+        <v>538</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>42</v>
@@ -15412,13 +15424,13 @@
         <v>41</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>123</v>
+        <v>539</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>41</v>
@@ -15427,23 +15439,23 @@
         <v>41</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>41</v>
+        <v>540</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>606</v>
+        <v>541</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>41</v>
@@ -15452,21 +15464,23 @@
         <v>41</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>97</v>
+        <v>542</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>125</v>
+        <v>543</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>41</v>
       </c>
@@ -15490,13 +15504,13 @@
         <v>41</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>41</v>
+        <v>546</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>41</v>
+        <v>547</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>41</v>
@@ -15514,25 +15528,25 @@
         <v>41</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>128</v>
+        <v>548</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>123</v>
+        <v>549</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>41</v>
@@ -15541,16 +15555,16 @@
         <v>41</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>41</v>
+        <v>550</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>607</v>
+        <v>551</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>371</v>
+        <v>41</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15563,26 +15577,22 @@
         <v>41</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>96</v>
+        <v>552</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>372</v>
+        <v>553</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>41</v>
       </c>
@@ -15630,7 +15640,7 @@
         <v>41</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>374</v>
+        <v>555</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>42</v>
@@ -15642,13 +15652,13 @@
         <v>41</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>41</v>
@@ -15657,12 +15667,12 @@
         <v>41</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>41</v>
+        <v>556</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>608</v>
+        <v>557</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15670,7 +15680,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>50</v>
@@ -15685,13 +15695,13 @@
         <v>41</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>609</v>
+        <v>120</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>610</v>
+        <v>121</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15742,10 +15752,10 @@
         <v>41</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>608</v>
+        <v>122</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>50</v>
@@ -15754,13 +15764,13 @@
         <v>41</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>611</v>
+        <v>123</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>41</v>
@@ -15774,18 +15784,18 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>612</v>
+        <v>558</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>41</v>
@@ -15797,15 +15807,17 @@
         <v>41</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>613</v>
+        <v>97</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="M120" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>41</v>
@@ -15830,63 +15842,63 @@
         <v>41</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>615</v>
+        <v>41</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>616</v>
+        <v>41</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>612</v>
+        <v>128</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>417</v>
+        <v>123</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>617</v>
+        <v>41</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>618</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>619</v>
+        <v>559</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15897,7 +15909,7 @@
         <v>42</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>41</v>
@@ -15906,19 +15918,21 @@
         <v>41</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J121" t="s" s="2">
         <v>140</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>621</v>
+        <v>561</v>
       </c>
       <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
+      <c r="N121" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="O121" t="s" s="2">
         <v>41</v>
       </c>
@@ -15945,10 +15959,10 @@
         <v>263</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>622</v>
+        <v>563</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>41</v>
@@ -15966,13 +15980,13 @@
         <v>41</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>619</v>
+        <v>565</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>41</v>
@@ -15984,21 +15998,21 @@
         <v>41</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>624</v>
+        <v>41</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>625</v>
+        <v>41</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>41</v>
+        <v>566</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16009,7 +16023,7 @@
         <v>42</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>41</v>
@@ -16018,19 +16032,23 @@
         <v>41</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>627</v>
+        <v>568</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>628</v>
+        <v>569</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>41</v>
       </c>
@@ -16078,13 +16096,13 @@
         <v>41</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>626</v>
+        <v>573</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>41</v>
@@ -16096,32 +16114,32 @@
         <v>41</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>630</v>
+        <v>549</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>631</v>
+        <v>41</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>41</v>
+        <v>574</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>632</v>
+        <v>575</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>633</v>
+        <v>41</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>41</v>
@@ -16130,21 +16148,23 @@
         <v>41</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>634</v>
+        <v>576</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>635</v>
+        <v>577</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>636</v>
+        <v>578</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N123" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>41</v>
       </c>
@@ -16192,13 +16212,13 @@
         <v>41</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>632</v>
+        <v>581</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>41</v>
@@ -16210,7 +16230,7 @@
         <v>41</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>638</v>
+        <v>582</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>41</v>
@@ -16219,12 +16239,12 @@
         <v>41</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>41</v>
+        <v>583</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>639</v>
+        <v>584</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16235,7 +16255,7 @@
         <v>42</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>41</v>
@@ -16244,21 +16264,23 @@
         <v>41</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>640</v>
+        <v>585</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>641</v>
+        <v>586</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>642</v>
+        <v>587</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>589</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>41</v>
       </c>
@@ -16306,13 +16328,13 @@
         <v>41</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>41</v>
@@ -16324,20 +16346,1380 @@
         <v>41</v>
       </c>
       <c r="AK124" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M126" s="2"/>
+      <c r="N126" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="133" hidden="true">
+      <c r="A133" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AN133" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" hidden="true">
+      <c r="A134" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" hidden="true">
+      <c r="A135" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P135" s="2"/>
+      <c r="Q135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="AL124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN124" t="s" s="2">
+      <c r="B136" s="2"/>
+      <c r="C136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F136" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P136" s="2"/>
+      <c r="Q136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN136" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN124">
+  <autoFilter ref="A1:AN136">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16347,7 +17729,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI123">
+  <conditionalFormatting sqref="A2:AI135">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$124</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4924" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="680">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.hl7belgium.be/fhir/StructureDefinition/be-medicationdispense</t>
+    <t>https://www.hl7belgium.org/fhir/StructureDefinition/be-medicationdispense</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T14:10:56+00:00</t>
+    <t>2021-10-27T14:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1174,6 +1174,9 @@
     <t>MedicationDispense.context.identifier.type.coding.system</t>
   </si>
   <si>
+    <t>https://www.gfd-dpp.be/fhir/reference/identifier_types</t>
+  </si>
+  <si>
     <t>MedicationDispense.context.identifier.type.coding.version</t>
   </si>
   <si>
@@ -1254,10 +1257,6 @@
     <t>Indicates who or what performed the event.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:actor}
-</t>
-  </si>
-  <si>
     <t>Event.performer</t>
   </si>
   <si>
@@ -1326,7 +1325,7 @@
     <t>MedicationDispense.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner)
 </t>
   </si>
   <si>
@@ -1340,25 +1339,6 @@
   </si>
   <si>
     <t>.role</t>
-  </si>
-  <si>
-    <t>dispensingOrganization</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-performer-organization-nidhi:When an organization is referred to by use of an identifier, the naming system SHOULD be NIHDI number {actor.identifier.exists() implies actor.identifier.system='https://www.ehealth.fgov.be/standards/fhir/NamingSystem/nihdi-organization'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-performer-practitioner-nidhi:When a practitioner is referred to by use of an identifier, the system naming SHOULD be NIHDI number {actor.identifier.exists() implies actor.identifier.system='https://www.ehealth.fgov.be/standards/fhir/NamingSystem/nihdi-practitioner'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner)
-</t>
   </si>
   <si>
     <t>MedicationDispense.location</t>
@@ -2458,7 +2438,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN136"/>
+  <dimension ref="A1:AN124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8718,7 +8698,7 @@
         <v>76</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>76</v>
@@ -8789,7 +8769,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8903,7 +8883,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8946,7 +8926,7 @@
         <v>76</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>76</v>
@@ -9017,7 +8997,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9131,7 +9111,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9247,7 +9227,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9363,7 +9343,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9408,7 +9388,7 @@
         <v>76</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>251</v>
@@ -9479,7 +9459,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9593,7 +9573,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9705,7 +9685,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9819,7 +9799,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9845,13 +9825,13 @@
         <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9901,7 +9881,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9933,7 +9913,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9956,13 +9936,13 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -10013,7 +9993,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10031,10 +10011,10 @@
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -10043,9 +10023,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10068,13 +10048,13 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10113,17 +10093,19 @@
         <v>76</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AB67" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -11179,13 +11161,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B77" t="s" s="2">
         <v>428</v>
       </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>76</v>
       </c>
@@ -11197,7 +11177,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -11206,13 +11186,13 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11263,25 +11243,25 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>429</v>
+        <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>401</v>
+        <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
@@ -11293,9 +11273,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11306,10 +11286,10 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -11318,15 +11298,17 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>87</v>
+        <v>434</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>155</v>
+        <v>435</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -11375,50 +11357,50 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>157</v>
+        <v>433</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>158</v>
+        <v>439</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>76</v>
+        <v>440</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>76</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>76</v>
@@ -11430,17 +11412,15 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>76</v>
@@ -11489,19 +11469,19 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>76</v>
@@ -11521,11 +11501,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>406</v>
+        <v>130</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11538,26 +11518,24 @@
         <v>76</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>407</v>
+        <v>132</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>408</v>
+        <v>160</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="N80" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>76</v>
       </c>
@@ -11593,19 +11571,19 @@
         <v>76</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>409</v>
+        <v>163</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11623,7 +11601,7 @@
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>76</v>
@@ -11637,7 +11615,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11657,21 +11635,21 @@
         <v>76</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>411</v>
+        <v>346</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>76</v>
       </c>
@@ -11695,13 +11673,13 @@
         <v>76</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>414</v>
+        <v>76</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>76</v>
@@ -11719,7 +11697,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>410</v>
+        <v>349</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11728,7 +11706,7 @@
         <v>85</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>97</v>
@@ -11737,7 +11715,7 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>416</v>
+        <v>128</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>76</v>
@@ -11751,7 +11729,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11759,7 +11737,7 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>85</v>
@@ -11771,18 +11749,20 @@
         <v>76</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>430</v>
+        <v>99</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>424</v>
+        <v>352</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>76</v>
@@ -11807,13 +11787,13 @@
         <v>76</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>76</v>
@@ -11831,10 +11811,10 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>422</v>
+        <v>357</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>85</v>
@@ -11846,10 +11826,10 @@
         <v>97</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>426</v>
+        <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>427</v>
+        <v>128</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>76</v>
@@ -11863,11 +11843,9 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>76</v>
       </c>
@@ -11885,18 +11863,20 @@
         <v>76</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>397</v>
+        <v>143</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11945,25 +11925,25 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>431</v>
+        <v>97</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>401</v>
+        <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
@@ -11975,9 +11955,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11991,24 +11971,26 @@
         <v>85</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>76</v>
@@ -12057,7 +12039,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>157</v>
+        <v>390</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12069,13 +12051,13 @@
         <v>76</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>76</v>
@@ -12089,18 +12071,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>76</v>
@@ -12112,17 +12094,15 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>132</v>
+        <v>449</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>76</v>
@@ -12147,13 +12127,13 @@
         <v>76</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>76</v>
+        <v>451</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>76</v>
@@ -12171,75 +12151,71 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>163</v>
+        <v>448</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>158</v>
+        <v>452</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>76</v>
+        <v>453</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>76</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>406</v>
+        <v>76</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>131</v>
+        <v>456</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>76</v>
       </c>
@@ -12287,39 +12263,39 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>128</v>
+        <v>459</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>76</v>
+        <v>460</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>76</v>
+        <v>461</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12342,18 +12318,16 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>175</v>
+        <v>456</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>413</v>
-      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>76</v>
       </c>
@@ -12377,13 +12351,13 @@
         <v>76</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>414</v>
+        <v>76</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>76</v>
@@ -12401,7 +12375,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12419,7 +12393,7 @@
         <v>76</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>76</v>
@@ -12428,12 +12402,12 @@
         <v>76</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>76</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12441,7 +12415,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>85</v>
@@ -12453,16 +12427,16 @@
         <v>76</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12513,10 +12487,10 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>85</v>
@@ -12528,24 +12502,24 @@
         <v>97</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>426</v>
+        <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12553,13 +12527,13 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>76</v>
@@ -12568,13 +12542,13 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12625,7 +12599,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12640,24 +12614,24 @@
         <v>97</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>76</v>
+        <v>477</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12668,10 +12642,10 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>76</v>
@@ -12680,17 +12654,15 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>76</v>
@@ -12739,13 +12711,13 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -12754,24 +12726,24 @@
         <v>97</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>446</v>
+        <v>484</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12782,7 +12754,7 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>76</v>
@@ -12794,13 +12766,13 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>87</v>
+        <v>486</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>155</v>
+        <v>487</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>156</v>
+        <v>488</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12851,43 +12823,43 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>157</v>
+        <v>485</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>158</v>
+        <v>489</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>76</v>
+        <v>490</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12897,7 +12869,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>76</v>
@@ -12906,17 +12878,15 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>131</v>
+        <v>492</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>132</v>
+        <v>493</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -12953,19 +12923,19 @@
         <v>76</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>163</v>
+        <v>491</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12977,13 +12947,13 @@
         <v>76</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>76</v>
+        <v>495</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>158</v>
+        <v>496</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>76</v>
@@ -12992,12 +12962,12 @@
         <v>76</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>76</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13008,28 +12978,28 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>87</v>
+        <v>499</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>346</v>
+        <v>500</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>347</v>
+        <v>501</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>348</v>
+        <v>502</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13079,16 +13049,16 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>97</v>
@@ -13097,7 +13067,7 @@
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>128</v>
+        <v>503</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>76</v>
@@ -13111,7 +13081,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13131,20 +13101,18 @@
         <v>76</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>352</v>
+        <v>155</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>76</v>
@@ -13169,13 +13137,13 @@
         <v>76</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>355</v>
+        <v>76</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>76</v>
@@ -13193,7 +13161,7 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>357</v>
+        <v>157</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13205,13 +13173,13 @@
         <v>76</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>76</v>
@@ -13223,41 +13191,41 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>359</v>
+        <v>132</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>361</v>
+        <v>134</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13295,37 +13263,37 @@
         <v>76</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>362</v>
+        <v>163</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>363</v>
+        <v>158</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>76</v>
@@ -13337,43 +13305,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H96" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>76</v>
       </c>
@@ -13421,19 +13391,19 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>76</v>
@@ -13453,7 +13423,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13473,19 +13443,21 @@
         <v>76</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>175</v>
+        <v>508</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>76</v>
       </c>
@@ -13509,13 +13481,13 @@
         <v>76</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>455</v>
+        <v>76</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>456</v>
+        <v>76</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>76</v>
@@ -13533,7 +13505,7 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13551,21 +13523,21 @@
         <v>76</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>459</v>
+        <v>514</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13585,19 +13557,21 @@
         <v>76</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>461</v>
+        <v>87</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+      <c r="N98" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>76</v>
       </c>
@@ -13645,7 +13619,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13663,21 +13637,21 @@
         <v>76</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>466</v>
+        <v>520</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13688,7 +13662,7 @@
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>76</v>
@@ -13697,19 +13671,23 @@
         <v>76</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>461</v>
+        <v>175</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>76</v>
       </c>
@@ -13733,13 +13711,13 @@
         <v>76</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>76</v>
+        <v>526</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>76</v>
+        <v>527</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>76</v>
@@ -13757,13 +13735,13 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>76</v>
@@ -13775,7 +13753,7 @@
         <v>76</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>76</v>
@@ -13784,12 +13762,12 @@
         <v>76</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>471</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13803,7 +13781,7 @@
         <v>85</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>76</v>
@@ -13812,13 +13790,13 @@
         <v>86</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>473</v>
+        <v>87</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13869,7 +13847,7 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13887,21 +13865,21 @@
         <v>76</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>477</v>
+        <v>76</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>478</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13909,31 +13887,35 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J101" t="s" s="2">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>76</v>
       </c>
@@ -13981,7 +13963,7 @@
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -13996,24 +13978,24 @@
         <v>97</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>482</v>
+        <v>76</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>477</v>
+        <v>76</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>478</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14033,18 +14015,20 @@
         <v>76</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>434</v>
+        <v>543</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>76</v>
@@ -14069,13 +14053,13 @@
         <v>76</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>76</v>
+        <v>547</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>76</v>
+        <v>548</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>76</v>
@@ -14093,7 +14077,7 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>484</v>
+        <v>549</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -14111,21 +14095,21 @@
         <v>76</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>488</v>
+        <v>76</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>489</v>
+        <v>551</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>490</v>
+        <v>552</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14136,7 +14120,7 @@
         <v>77</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>76</v>
@@ -14145,19 +14129,23 @@
         <v>76</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>491</v>
+        <v>175</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>76</v>
       </c>
@@ -14181,13 +14169,13 @@
         <v>76</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>76</v>
+        <v>557</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>76</v>
+        <v>558</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>76</v>
@@ -14205,13 +14193,13 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>490</v>
+        <v>559</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
@@ -14223,21 +14211,21 @@
         <v>76</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>494</v>
+        <v>560</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>495</v>
+        <v>76</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>76</v>
+        <v>561</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14248,28 +14236,30 @@
         <v>77</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I104" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J104" t="s" s="2">
-        <v>497</v>
+        <v>175</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>498</v>
+        <v>563</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>76</v>
       </c>
@@ -14293,13 +14283,13 @@
         <v>76</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>76</v>
+        <v>566</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>76</v>
+        <v>567</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>76</v>
@@ -14317,13 +14307,13 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>496</v>
+        <v>568</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
@@ -14332,10 +14322,10 @@
         <v>97</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>500</v>
+        <v>76</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>501</v>
+        <v>569</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>76</v>
@@ -14344,12 +14334,12 @@
         <v>76</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>502</v>
+        <v>570</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>503</v>
+        <v>571</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14360,30 +14350,32 @@
         <v>77</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I105" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J105" t="s" s="2">
-        <v>504</v>
+        <v>175</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>505</v>
+        <v>572</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>575</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>76</v>
       </c>
@@ -14407,13 +14399,13 @@
         <v>76</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>76</v>
+        <v>576</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>76</v>
+        <v>577</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>76</v>
@@ -14431,13 +14423,13 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>503</v>
+        <v>578</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
@@ -14449,7 +14441,7 @@
         <v>76</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>76</v>
@@ -14458,12 +14450,12 @@
         <v>76</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>76</v>
+        <v>580</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>509</v>
+        <v>581</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14474,7 +14466,7 @@
         <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>76</v>
@@ -14483,16 +14475,16 @@
         <v>76</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>87</v>
+        <v>582</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>155</v>
+        <v>583</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>156</v>
+        <v>584</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14543,25 +14535,25 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>157</v>
+        <v>585</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>76</v>
@@ -14570,23 +14562,23 @@
         <v>76</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>76</v>
+        <v>586</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>510</v>
+        <v>587</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>76</v>
@@ -14598,17 +14590,15 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>76</v>
@@ -14645,31 +14635,31 @@
         <v>76</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>76</v>
@@ -14689,11 +14679,11 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>511</v>
+        <v>588</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>406</v>
+        <v>130</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14706,26 +14696,24 @@
         <v>76</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>407</v>
+        <v>132</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>408</v>
+        <v>160</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="N108" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>76</v>
       </c>
@@ -14761,19 +14749,19 @@
         <v>76</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>409</v>
+        <v>163</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -14791,7 +14779,7 @@
         <v>76</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>76</v>
@@ -14805,7 +14793,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>512</v>
+        <v>589</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14828,17 +14816,17 @@
         <v>86</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>513</v>
+        <v>175</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>516</v>
+        <v>592</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>76</v>
@@ -14863,13 +14851,13 @@
         <v>76</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>76</v>
+        <v>593</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>76</v>
+        <v>594</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>76</v>
@@ -14887,7 +14875,7 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>517</v>
+        <v>595</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -14905,7 +14893,7 @@
         <v>76</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>518</v>
+        <v>76</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>76</v>
@@ -14914,12 +14902,12 @@
         <v>76</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>519</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>520</v>
+        <v>597</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14933,7 +14921,7 @@
         <v>85</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>76</v>
@@ -14942,17 +14930,19 @@
         <v>86</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>87</v>
+        <v>598</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>521</v>
+        <v>599</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M110" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="N110" t="s" s="2">
-        <v>523</v>
+        <v>602</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>76</v>
@@ -15001,7 +14991,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>524</v>
+        <v>603</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -15019,7 +15009,7 @@
         <v>76</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>76</v>
@@ -15028,12 +15018,12 @@
         <v>76</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>525</v>
+        <v>604</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15044,7 +15034,7 @@
         <v>77</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>76</v>
@@ -15056,19 +15046,19 @@
         <v>86</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>175</v>
+        <v>606</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>527</v>
+        <v>607</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>528</v>
+        <v>608</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>529</v>
+        <v>609</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>530</v>
+        <v>610</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>76</v>
@@ -15093,13 +15083,13 @@
         <v>76</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>531</v>
+        <v>76</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>532</v>
+        <v>76</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>76</v>
@@ -15117,13 +15107,13 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
@@ -15135,7 +15125,7 @@
         <v>76</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>518</v>
+        <v>612</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>76</v>
@@ -15144,12 +15134,12 @@
         <v>76</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>534</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>535</v>
+        <v>614</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15163,7 +15153,7 @@
         <v>85</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>76</v>
@@ -15172,16 +15162,20 @@
         <v>86</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>87</v>
+        <v>615</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>536</v>
+        <v>616</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+        <v>617</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>619</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>76</v>
       </c>
@@ -15229,7 +15223,7 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>538</v>
+        <v>620</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -15247,7 +15241,7 @@
         <v>76</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>518</v>
+        <v>621</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>76</v>
@@ -15256,12 +15250,12 @@
         <v>76</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>534</v>
+        <v>622</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>539</v>
+        <v>623</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15284,19 +15278,19 @@
         <v>86</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>540</v>
+        <v>456</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>541</v>
+        <v>624</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>543</v>
+        <v>626</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>544</v>
+        <v>627</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
@@ -15345,7 +15339,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>545</v>
+        <v>628</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -15363,7 +15357,7 @@
         <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>546</v>
+        <v>629</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>76</v>
@@ -15377,7 +15371,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>547</v>
+        <v>630</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15400,18 +15394,18 @@
         <v>86</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>548</v>
+        <v>456</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>549</v>
+        <v>631</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" t="s" s="2">
+        <v>633</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>76</v>
       </c>
@@ -15435,13 +15429,13 @@
         <v>76</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>552</v>
+        <v>76</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>553</v>
+        <v>76</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>76</v>
@@ -15459,7 +15453,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>554</v>
+        <v>634</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15477,7 +15471,7 @@
         <v>76</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>555</v>
+        <v>629</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>76</v>
@@ -15486,12 +15480,12 @@
         <v>76</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>556</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>557</v>
+        <v>635</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15511,23 +15505,19 @@
         <v>76</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>175</v>
+        <v>398</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>558</v>
+        <v>636</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>561</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>76</v>
       </c>
@@ -15551,13 +15541,13 @@
         <v>76</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>562</v>
+        <v>76</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>563</v>
+        <v>76</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>76</v>
@@ -15575,7 +15565,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15593,21 +15583,21 @@
         <v>76</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>565</v>
+        <v>638</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>76</v>
+        <v>639</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>566</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>567</v>
+        <v>640</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15627,21 +15617,19 @@
         <v>76</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>568</v>
+        <v>155</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>569</v>
+        <v>156</v>
       </c>
       <c r="M116" s="2"/>
-      <c r="N116" t="s" s="2">
-        <v>570</v>
-      </c>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>76</v>
       </c>
@@ -15665,13 +15653,13 @@
         <v>76</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>571</v>
+        <v>76</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>572</v>
+        <v>76</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>76</v>
@@ -15689,7 +15677,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>573</v>
+        <v>157</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -15701,13 +15689,13 @@
         <v>76</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>574</v>
+        <v>158</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>76</v>
@@ -15716,23 +15704,23 @@
         <v>76</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>575</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>76</v>
@@ -15741,23 +15729,21 @@
         <v>76</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>577</v>
+        <v>132</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>578</v>
+        <v>160</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>76</v>
       </c>
@@ -15781,13 +15767,13 @@
         <v>76</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>581</v>
+        <v>76</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>582</v>
+        <v>76</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>76</v>
@@ -15805,25 +15791,25 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>583</v>
+        <v>163</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>584</v>
+        <v>158</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>76</v>
@@ -15832,16 +15818,16 @@
         <v>76</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>585</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>586</v>
+        <v>642</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15854,22 +15840,26 @@
         <v>76</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>587</v>
+        <v>131</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>588</v>
+        <v>407</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>76</v>
       </c>
@@ -15917,7 +15907,7 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>590</v>
+        <v>409</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -15929,13 +15919,13 @@
         <v>76</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>76</v>
@@ -15944,12 +15934,12 @@
         <v>76</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>591</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>592</v>
+        <v>643</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15957,7 +15947,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>85</v>
@@ -15972,13 +15962,13 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>155</v>
+        <v>644</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>156</v>
+        <v>645</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16029,10 +16019,10 @@
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>157</v>
+        <v>643</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>85</v>
@@ -16041,13 +16031,13 @@
         <v>76</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>158</v>
+        <v>646</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>76</v>
@@ -16061,18 +16051,18 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>593</v>
+        <v>647</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>76</v>
@@ -16084,17 +16074,15 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>132</v>
+        <v>648</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>76</v>
@@ -16119,63 +16107,63 @@
         <v>76</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>76</v>
+        <v>650</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>76</v>
+        <v>651</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>163</v>
+        <v>647</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>158</v>
+        <v>452</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>76</v>
+        <v>652</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>76</v>
+        <v>653</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>594</v>
+        <v>654</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16186,7 +16174,7 @@
         <v>77</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>76</v>
@@ -16195,21 +16183,19 @@
         <v>76</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
         <v>175</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>595</v>
+        <v>655</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>596</v>
+        <v>656</v>
       </c>
       <c r="M121" s="2"/>
-      <c r="N121" t="s" s="2">
-        <v>597</v>
-      </c>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>76</v>
       </c>
@@ -16236,10 +16222,10 @@
         <v>298</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>598</v>
+        <v>657</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>599</v>
+        <v>658</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>76</v>
@@ -16257,13 +16243,13 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>600</v>
+        <v>654</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>76</v>
@@ -16275,21 +16261,21 @@
         <v>76</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>76</v>
+        <v>659</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>76</v>
+        <v>660</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>601</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>602</v>
+        <v>661</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16300,7 +16286,7 @@
         <v>77</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>76</v>
@@ -16309,23 +16295,19 @@
         <v>76</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>603</v>
+        <v>662</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>604</v>
+        <v>663</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>76</v>
       </c>
@@ -16373,13 +16355,13 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>608</v>
+        <v>661</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>76</v>
@@ -16391,32 +16373,32 @@
         <v>76</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>584</v>
+        <v>665</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>76</v>
+        <v>666</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>609</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>610</v>
+        <v>667</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>76</v>
+        <v>668</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>76</v>
@@ -16425,23 +16407,21 @@
         <v>76</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>611</v>
+        <v>669</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>612</v>
+        <v>670</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>613</v>
+        <v>671</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>615</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>76</v>
       </c>
@@ -16489,13 +16469,13 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>616</v>
+        <v>667</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>76</v>
@@ -16507,7 +16487,7 @@
         <v>76</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>617</v>
+        <v>673</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>76</v>
@@ -16516,12 +16496,12 @@
         <v>76</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>618</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>619</v>
+        <v>674</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16532,7 +16512,7 @@
         <v>77</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>76</v>
@@ -16541,23 +16521,21 @@
         <v>76</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>620</v>
+        <v>675</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>621</v>
+        <v>676</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>622</v>
+        <v>677</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16605,13 +16583,13 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>625</v>
+        <v>674</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>76</v>
@@ -16623,7 +16601,7 @@
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>626</v>
+        <v>679</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>76</v>
@@ -16632,1371 +16610,11 @@
         <v>76</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F128" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P129" s="2"/>
-      <c r="Q129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P130" s="2"/>
-      <c r="Q130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="F131" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P131" s="2"/>
-      <c r="Q131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F132" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P132" s="2"/>
-      <c r="Q132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P133" s="2"/>
-      <c r="Q133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P134" s="2"/>
-      <c r="Q134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P135" s="2"/>
-      <c r="Q135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N136" s="2"/>
-      <c r="O136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P136" s="2"/>
-      <c r="Q136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN136" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN136">
+  <autoFilter ref="A1:AN124">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18006,7 +16624,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI135">
+  <conditionalFormatting sqref="A2:AI123">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T14:12:07+00:00</t>
+    <t>2022-03-29T12:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T12:06:51+00:00</t>
+    <t>2022-03-29T12:11:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T12:11:46+00:00</t>
+    <t>2022-03-29T12:22:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.hl7belgium.org/fhir/StructureDefinition/be-medicationdispense</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/medication/StructureDefinition/be-medicationdispense</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T12:22:58+00:00</t>
+    <t>2022-03-29T14:37:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
+    <t>HL7 Belgium/eHealth Platform</t>
   </si>
   <si>
     <t>Contact</t>
@@ -1032,7 +1032,7 @@
     <t>MedicationDispense.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient)
 </t>
   </si>
   <si>
@@ -1325,7 +1325,7 @@
     <t>MedicationDispense.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner)
 </t>
   </si>
   <si>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T14:37:32+00:00</t>
+    <t>2022-03-29T14:38:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T14:38:19+00:00</t>
+    <t>2022-03-29T15:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T15:00:59+00:00</t>
+    <t>2022-03-29T15:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T15:01:20+00:00</t>
+    <t>2022-03-29T15:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T15:24:43+00:00</t>
+    <t>2022-03-29T15:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T15:29:46+00:00</t>
+    <t>2022-03-29T15:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4497" uniqueCount="680">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T15:40:06+00:00</t>
+    <t>2022-03-29T17:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium/eHealth Platform</t>
+    <t>eHealth Platform</t>
   </si>
   <si>
     <t>Contact</t>
@@ -2267,7 +2267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2357,77 +2357,85 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>35</v>
       </c>
     </row>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T17:35:12+00:00</t>
+    <t>2022-04-22T15:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:41:49+00:00</t>
+    <t>2022-04-22T18:00:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T18:00:44+00:00</t>
+    <t>2022-05-06T09:14:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-06T09:14:12+00:00</t>
+    <t>2022-05-06T09:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-06T09:22:59+00:00</t>
+    <t>2022-05-06T11:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-06T11:58:18+00:00</t>
+    <t>2022-05-06T12:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-06T12:00:57+00:00</t>
+    <t>2022-05-06T12:01:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-06T12:01:36+00:00</t>
+    <t>2022-05-06T14:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-06T14:52:18+00:00</t>
+    <t>2022-06-17T12:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-17T12:47:22+00:00</t>
+    <t>2022-06-17T12:53:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-17T12:53:33+00:00</t>
+    <t>2022-10-17T07:49:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -261,10 +261,6 @@
     <t>A register of a medication dispense, describing the medication that has been dispensed by a professional or by an organization, including the medication, the patient, some prescription and treatment information.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -278,227 +274,231 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>MedicationDispense.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>MedicationDispense.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>MedicationDispense.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>MedicationDispense.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>MedicationDispense.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationDispense.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External identifier</t>
+  </si>
+  <si>
+    <t>Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>CombinedMedicationDispense.id</t>
+  </si>
+  <si>
+    <t>DGUID</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>MedicationDispense.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>MedicationDispense.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>MedicationDispense.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>MedicationDispense.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>MedicationDispense.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>MedicationDispense.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MedicationDispense.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External identifier</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CombinedMedicationDispense.id</t>
-  </si>
-  <si>
-    <t>DGUID</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -976,7 +976,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference</t>
+Reference(Medication)</t>
   </si>
   <si>
     <t>What medication was supplied</t>
@@ -2458,42 +2458,42 @@
     <col min="1" max="1" width="62.16015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.9296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="198.02734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="46.83984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="73.29296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="73.296875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2713,13 +2713,13 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>76</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2744,28 +2744,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2815,13 +2815,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2858,25 +2858,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2927,19 +2927,19 @@
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>76</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2970,28 +2970,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -3041,19 +3041,19 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>76</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -3084,7 +3084,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -3096,16 +3096,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -3131,43 +3131,43 @@
         <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
@@ -3187,18 +3187,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -3210,16 +3210,16 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3269,25 +3269,25 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>76</v>
@@ -3301,11 +3301,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3324,16 +3324,16 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3383,7 +3383,7 @@
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -3401,7 +3401,7 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -3415,11 +3415,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3438,16 +3438,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3497,7 +3497,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -3509,13 +3509,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -3529,11 +3529,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3546,25 +3546,25 @@
         <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -3613,7 +3613,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3625,13 +3625,13 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>76</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3659,7 +3659,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -3668,16 +3668,16 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3715,17 +3715,17 @@
         <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3737,19 +3737,19 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>76</v>
@@ -3757,10 +3757,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>76</v>
@@ -3770,11 +3770,11 @@
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
       </c>
@@ -3782,16 +3782,16 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3841,7 +3841,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3853,19 +3853,19 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>76</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3884,7 +3884,7 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>76</v>
@@ -3896,7 +3896,7 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>155</v>
@@ -3959,7 +3959,7 @@
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -4008,16 +4008,16 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -4064,7 +4064,7 @@
         <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>163</v>
@@ -4079,7 +4079,7 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>76</v>
@@ -4110,19 +4110,19 @@
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>165</v>
@@ -4189,13 +4189,13 @@
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>76</v>
@@ -4210,7 +4210,7 @@
         <v>76</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" hidden="true">
@@ -4226,16 +4226,16 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>175</v>
@@ -4305,13 +4305,13 @@
         <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
@@ -4342,7 +4342,7 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>76</v>
@@ -4354,7 +4354,7 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>155</v>
@@ -4417,7 +4417,7 @@
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4466,16 +4466,16 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>160</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4522,7 +4522,7 @@
         <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>163</v>
@@ -4537,7 +4537,7 @@
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>76</v>
@@ -4577,7 +4577,7 @@
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>188</v>
@@ -4653,7 +4653,7 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -4684,7 +4684,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -4696,7 +4696,7 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>155</v>
@@ -4759,7 +4759,7 @@
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4808,16 +4808,16 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>160</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4864,7 +4864,7 @@
         <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>163</v>
@@ -4879,7 +4879,7 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
@@ -4910,19 +4910,19 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>199</v>
@@ -4989,13 +4989,13 @@
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>76</v>
@@ -5026,19 +5026,19 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>207</v>
@@ -5103,13 +5103,13 @@
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
@@ -5140,19 +5140,19 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>214</v>
@@ -5217,13 +5217,13 @@
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>76</v>
@@ -5254,19 +5254,19 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>222</v>
@@ -5331,13 +5331,13 @@
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
@@ -5368,16 +5368,16 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>229</v>
@@ -5447,13 +5447,13 @@
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
@@ -5484,19 +5484,19 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>238</v>
@@ -5563,13 +5563,13 @@
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
@@ -5597,22 +5597,22 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>246</v>
@@ -5679,13 +5679,13 @@
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -5716,19 +5716,19 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>256</v>
@@ -5793,13 +5793,13 @@
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
@@ -5830,16 +5830,16 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>264</v>
@@ -5905,13 +5905,13 @@
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>76</v>
@@ -5942,16 +5942,16 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>271</v>
@@ -6019,13 +6019,13 @@
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
@@ -6137,7 +6137,7 @@
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>282</v>
@@ -6165,22 +6165,22 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="I33" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>285</v>
@@ -6242,16 +6242,16 @@
         <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>290</v>
@@ -6282,7 +6282,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>76</v>
@@ -6357,13 +6357,13 @@
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>301</v>
@@ -6394,7 +6394,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>76</v>
@@ -6441,7 +6441,7 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X35" t="s" s="2">
         <v>307</v>
@@ -6471,13 +6471,13 @@
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
@@ -6505,19 +6505,19 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>311</v>
@@ -6580,16 +6580,16 @@
         <v>310</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>319</v>
@@ -6622,16 +6622,16 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>175</v>
@@ -6696,16 +6696,16 @@
         <v>310</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>319</v>
@@ -6738,16 +6738,16 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>327</v>
@@ -6812,16 +6812,16 @@
         <v>310</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>319</v>
@@ -6849,19 +6849,19 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="H39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>329</v>
@@ -6929,13 +6929,13 @@
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>333</v>
@@ -6966,10 +6966,10 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -7041,13 +7041,13 @@
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>341</v>
@@ -7078,7 +7078,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>76</v>
@@ -7090,7 +7090,7 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>155</v>
@@ -7153,7 +7153,7 @@
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7202,16 +7202,16 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>160</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7258,7 +7258,7 @@
         <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>163</v>
@@ -7273,7 +7273,7 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>76</v>
@@ -7304,19 +7304,19 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>346</v>
@@ -7381,19 +7381,19 @@
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>350</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -7418,19 +7418,19 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>352</v>
@@ -7495,19 +7495,19 @@
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -7532,19 +7532,19 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>359</v>
@@ -7609,13 +7609,13 @@
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>76</v>
@@ -7646,7 +7646,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>76</v>
@@ -7658,7 +7658,7 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>155</v>
@@ -7721,7 +7721,7 @@
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7770,16 +7770,16 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>160</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7826,7 +7826,7 @@
         <v>76</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>163</v>
@@ -7841,7 +7841,7 @@
         <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>76</v>
@@ -7872,19 +7872,19 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I48" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>165</v>
@@ -7951,13 +7951,13 @@
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
@@ -7972,7 +7972,7 @@
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -7988,16 +7988,16 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>175</v>
@@ -8067,13 +8067,13 @@
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
@@ -8104,7 +8104,7 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>76</v>
@@ -8116,7 +8116,7 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>155</v>
@@ -8179,7 +8179,7 @@
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -8228,16 +8228,16 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>160</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8284,7 +8284,7 @@
         <v>76</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>163</v>
@@ -8299,7 +8299,7 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
@@ -8339,7 +8339,7 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>188</v>
@@ -8415,7 +8415,7 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>76</v>
@@ -8446,7 +8446,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>76</v>
@@ -8458,7 +8458,7 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>155</v>
@@ -8521,7 +8521,7 @@
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8570,16 +8570,16 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>160</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8626,7 +8626,7 @@
         <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>163</v>
@@ -8641,7 +8641,7 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
@@ -8672,19 +8672,19 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>199</v>
@@ -8751,13 +8751,13 @@
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>76</v>
@@ -8788,19 +8788,19 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>207</v>
@@ -8865,13 +8865,13 @@
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>76</v>
@@ -8902,19 +8902,19 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>214</v>
@@ -8979,13 +8979,13 @@
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
@@ -9016,19 +9016,19 @@
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>222</v>
@@ -9093,13 +9093,13 @@
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>76</v>
@@ -9130,16 +9130,16 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>229</v>
@@ -9209,13 +9209,13 @@
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>76</v>
@@ -9246,19 +9246,19 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>238</v>
@@ -9325,13 +9325,13 @@
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
@@ -9362,19 +9362,19 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>246</v>
@@ -9441,13 +9441,13 @@
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>76</v>
@@ -9478,19 +9478,19 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>256</v>
@@ -9555,13 +9555,13 @@
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>76</v>
@@ -9592,16 +9592,16 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>264</v>
@@ -9667,13 +9667,13 @@
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>76</v>
@@ -9704,16 +9704,16 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>271</v>
@@ -9781,13 +9781,13 @@
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
@@ -9818,19 +9818,19 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>387</v>
@@ -9895,19 +9895,19 @@
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -10013,7 +10013,7 @@
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>76</v>
@@ -10041,13 +10041,13 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -10125,7 +10125,7 @@
         <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>401</v>
@@ -10156,7 +10156,7 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>76</v>
@@ -10168,7 +10168,7 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>155</v>
@@ -10231,7 +10231,7 @@
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10280,16 +10280,16 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>160</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10351,7 +10351,7 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>76</v>
@@ -10388,13 +10388,13 @@
         <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>407</v>
@@ -10403,10 +10403,10 @@
         <v>408</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -10467,13 +10467,13 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -10498,7 +10498,7 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>76</v>
@@ -10575,13 +10575,13 @@
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
@@ -10612,7 +10612,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>76</v>
@@ -10624,7 +10624,7 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>155</v>
@@ -10687,7 +10687,7 @@
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10736,16 +10736,16 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>160</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10792,7 +10792,7 @@
         <v>76</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE73" t="s" s="2">
         <v>163</v>
@@ -10807,7 +10807,7 @@
         <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>76</v>
@@ -10847,7 +10847,7 @@
         <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>188</v>
@@ -10923,7 +10923,7 @@
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>76</v>
@@ -10954,19 +10954,19 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J75" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>238</v>
@@ -11033,13 +11033,13 @@
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>76</v>
@@ -11067,10 +11067,10 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>76</v>
@@ -11142,16 +11142,16 @@
         <v>422</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>426</v>
@@ -11182,7 +11182,7 @@
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>76</v>
@@ -11257,13 +11257,13 @@
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>76</v>
@@ -11297,7 +11297,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -11377,7 +11377,7 @@
         <v>76</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>438</v>
@@ -11408,7 +11408,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>76</v>
@@ -11420,7 +11420,7 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>155</v>
@@ -11483,7 +11483,7 @@
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -11513,7 +11513,7 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11532,16 +11532,16 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>160</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11588,7 +11588,7 @@
         <v>76</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE80" t="s" s="2">
         <v>163</v>
@@ -11603,7 +11603,7 @@
         <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>76</v>
@@ -11634,19 +11634,19 @@
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J81" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>346</v>
@@ -11711,19 +11711,19 @@
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>350</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>76</v>
@@ -11748,19 +11748,19 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J82" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>352</v>
@@ -11825,19 +11825,19 @@
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>76</v>
@@ -11862,19 +11862,19 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G83" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G83" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>359</v>
@@ -11939,13 +11939,13 @@
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>76</v>
@@ -11976,19 +11976,19 @@
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G84" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G84" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>387</v>
@@ -12053,19 +12053,19 @@
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>76</v>
@@ -12090,7 +12090,7 @@
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>76</v>
@@ -12165,13 +12165,13 @@
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>76</v>
@@ -12202,10 +12202,10 @@
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G86" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>76</v>
@@ -12277,13 +12277,13 @@
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>76</v>
@@ -12314,7 +12314,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>76</v>
@@ -12389,13 +12389,13 @@
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>76</v>
@@ -12426,16 +12426,16 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>468</v>
@@ -12501,13 +12501,13 @@
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>76</v>
@@ -12535,13 +12535,13 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G89" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>76</v>
@@ -12613,13 +12613,13 @@
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>477</v>
@@ -12650,7 +12650,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>76</v>
@@ -12725,13 +12725,13 @@
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>76</v>
@@ -12843,7 +12843,7 @@
         <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>76</v>
@@ -12877,7 +12877,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>76</v>
@@ -12955,7 +12955,7 @@
         <v>76</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>495</v>
@@ -12989,7 +12989,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>76</v>
@@ -13069,7 +13069,7 @@
         <v>76</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>76</v>
@@ -13100,7 +13100,7 @@
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>76</v>
@@ -13112,7 +13112,7 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>155</v>
@@ -13175,7 +13175,7 @@
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
@@ -13205,7 +13205,7 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13224,16 +13224,16 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>160</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13280,7 +13280,7 @@
         <v>76</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE95" t="s" s="2">
         <v>163</v>
@@ -13295,7 +13295,7 @@
         <v>76</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>76</v>
@@ -13332,13 +13332,13 @@
         <v>76</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>407</v>
@@ -13347,10 +13347,10 @@
         <v>408</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>76</v>
@@ -13411,13 +13411,13 @@
         <v>76</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>76</v>
@@ -13442,16 +13442,16 @@
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I97" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>508</v>
@@ -13519,13 +13519,13 @@
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>76</v>
@@ -13556,19 +13556,19 @@
         <v>77</v>
       </c>
       <c r="F98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G98" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G98" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>516</v>
@@ -13633,13 +13633,13 @@
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>76</v>
@@ -13679,7 +13679,7 @@
         <v>76</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>175</v>
@@ -13755,7 +13755,7 @@
         <v>76</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>76</v>
@@ -13786,19 +13786,19 @@
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G100" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G100" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>531</v>
@@ -13861,13 +13861,13 @@
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>76</v>
@@ -13898,16 +13898,16 @@
         <v>77</v>
       </c>
       <c r="F101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>535</v>
@@ -13977,13 +13977,13 @@
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>76</v>
@@ -14014,16 +14014,16 @@
         <v>77</v>
       </c>
       <c r="F102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I102" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J102" t="s" s="2">
         <v>543</v>
@@ -14091,13 +14091,13 @@
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>76</v>
@@ -14128,16 +14128,16 @@
         <v>77</v>
       </c>
       <c r="F103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I103" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>175</v>
@@ -14207,13 +14207,13 @@
         <v>77</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>76</v>
@@ -14244,16 +14244,16 @@
         <v>77</v>
       </c>
       <c r="F104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I104" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J104" t="s" s="2">
         <v>175</v>
@@ -14321,13 +14321,13 @@
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>76</v>
@@ -14358,16 +14358,16 @@
         <v>77</v>
       </c>
       <c r="F105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I105" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>175</v>
@@ -14437,13 +14437,13 @@
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>76</v>
@@ -14483,7 +14483,7 @@
         <v>76</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>582</v>
@@ -14555,7 +14555,7 @@
         <v>76</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>76</v>
@@ -14586,7 +14586,7 @@
         <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>76</v>
@@ -14598,7 +14598,7 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>155</v>
@@ -14661,7 +14661,7 @@
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
@@ -14691,7 +14691,7 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14710,16 +14710,16 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K108" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="L108" t="s" s="2">
         <v>160</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -14766,7 +14766,7 @@
         <v>76</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE108" t="s" s="2">
         <v>163</v>
@@ -14781,7 +14781,7 @@
         <v>76</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>76</v>
@@ -14812,16 +14812,16 @@
         <v>77</v>
       </c>
       <c r="F109" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I109" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>175</v>
@@ -14889,13 +14889,13 @@
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>76</v>
@@ -14926,16 +14926,16 @@
         <v>77</v>
       </c>
       <c r="F110" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I110" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>598</v>
@@ -15005,13 +15005,13 @@
         <v>77</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>76</v>
@@ -15042,16 +15042,16 @@
         <v>77</v>
       </c>
       <c r="F111" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I111" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>606</v>
@@ -15121,13 +15121,13 @@
         <v>77</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>76</v>
@@ -15158,16 +15158,16 @@
         <v>77</v>
       </c>
       <c r="F112" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I112" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>615</v>
@@ -15237,13 +15237,13 @@
         <v>77</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>76</v>
@@ -15274,16 +15274,16 @@
         <v>77</v>
       </c>
       <c r="F113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I113" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J113" t="s" s="2">
         <v>456</v>
@@ -15353,13 +15353,13 @@
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>76</v>
@@ -15390,16 +15390,16 @@
         <v>77</v>
       </c>
       <c r="F114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I114" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J114" t="s" s="2">
         <v>456</v>
@@ -15467,13 +15467,13 @@
         <v>77</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>76</v>
@@ -15504,7 +15504,7 @@
         <v>77</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>76</v>
@@ -15579,13 +15579,13 @@
         <v>77</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>76</v>
@@ -15616,7 +15616,7 @@
         <v>77</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>76</v>
@@ -15628,7 +15628,7 @@
         <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>155</v>
@@ -15691,7 +15691,7 @@
         <v>77</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>76</v>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15740,16 +15740,16 @@
         <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K117" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="L117" t="s" s="2">
         <v>160</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -15811,7 +15811,7 @@
         <v>76</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>76</v>
@@ -15848,13 +15848,13 @@
         <v>76</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>407</v>
@@ -15863,10 +15863,10 @@
         <v>408</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>76</v>
@@ -15927,13 +15927,13 @@
         <v>76</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>76</v>
@@ -15955,10 +15955,10 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>76</v>
@@ -16030,16 +16030,16 @@
         <v>643</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>76</v>
@@ -16070,7 +16070,7 @@
         <v>77</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>76</v>
@@ -16145,13 +16145,13 @@
         <v>77</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>76</v>
@@ -16263,7 +16263,7 @@
         <v>76</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>76</v>
@@ -16375,7 +16375,7 @@
         <v>76</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>76</v>
@@ -16489,7 +16489,7 @@
         <v>76</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>76</v>
@@ -16603,7 +16603,7 @@
         <v>76</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17T07:49:41+00:00</t>
+    <t>2022-10-17T09:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17T09:05:20+00:00</t>
+    <t>2022-10-17T09:05:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T16:24:53+00:00</t>
+    <t>2023-10-07T20:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-07T20:10:57+00:00</t>
+    <t>2023-10-29T13:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T13:58:21+00:00</t>
+    <t>2023-10-29T17:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
+    <t>eHealth Platform</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T17:13:12+00:00</t>
+    <t>2023-10-29T17:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T17:28:29+00:00</t>
+    <t>2023-10-29T18:04:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T18:04:13+00:00</t>
+    <t>2023-10-29T19:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T19:43:50+00:00</t>
+    <t>2023-11-02T09:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-06T03:28:29+00:00</t>
+    <t>2024-01-02T17:12:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-02T17:12:06+00:00</t>
+    <t>2024-01-09T10:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-09T10:02:55+00:00</t>
+    <t>2024-01-09T13:30:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-09T13:30:16+00:00</t>
+    <t>2024-03-21T20:28:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T20:28:49+00:00</t>
+    <t>2024-03-24T09:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-24T09:50:04+00:00</t>
+    <t>2024-03-24T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-24T15:17:23+00:00</t>
+    <t>2024-03-25T22:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:02:55+00:00</t>
+    <t>2024-03-25T22:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:27:20+00:00</t>
+    <t>2024-03-26T10:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T10:34:23+00:00</t>
+    <t>2024-03-26T10:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T10:57:44+00:00</t>
+    <t>2024-03-28T20:52:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
+    <t>eHealth Platform</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T20:52:03+00:00</t>
+    <t>2024-03-29T21:30:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T21:30:10+00:00</t>
+    <t>2024-03-30T10:20:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
+    <t>eHealth Platform</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T10:20:56+00:00</t>
+    <t>2024-03-30T10:53:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T10:53:39+00:00</t>
+    <t>2024-03-30T10:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T10:56:30+00:00</t>
+    <t>2024-03-30T13:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T13:34:04+00:00</t>
+    <t>2024-03-30T13:49:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T13:49:38+00:00</t>
+    <t>2024-03-30T14:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T14:41:48+00:00</t>
+    <t>2024-03-30T19:04:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T19:04:54+00:00</t>
+    <t>2024-04-03T13:08:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T08:57:13+00:00</t>
+    <t>2024-04-07T09:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,19 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T09:48:24+00:00</t>
+    <t>2024-04-07T12:07:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
+    <t>eHealth Platform</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Belgium (https://www.hl7belgium.org, hl7belgium@hl7belgium.org)</t>
+    <t>eHealth Platform (https://www.ehealth.fgov.be/standards/fhir, message-structure@ehealth.fgov.be)</t>
   </si>
   <si>
     <t>Message Structure eHealth (message-structure@ehealth.fgov.be(WORK))</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:07:30+00:00</t>
+    <t>2024-04-07T12:14:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:14:10+00:00</t>
+    <t>2024-04-07T12:19:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,19 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:19:24+00:00</t>
+    <t>2024-04-07T13:15:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>eHealth Platform (https://www.ehealth.fgov.be/standards/fhir, message-structure@ehealth.fgov.be)</t>
+    <t>HL7 Belgium (https://www.hl7belgium.org, hl7belgium@hl7belgium.org)</t>
   </si>
   <si>
     <t>Message Structure eHealth (message-structure@ehealth.fgov.be(WORK))</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T13:15:37+00:00</t>
+    <t>2024-04-07T13:19:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T13:19:46+00:00</t>
+    <t>2024-04-10T07:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T07:41:38+00:00</t>
+    <t>2024-04-14T06:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-14T06:15:19+00:00</t>
+    <t>2024-05-06T21:25:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T21:25:42+00:00</t>
+    <t>2024-05-07T09:01:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-07T09:01:04+00:00</t>
+    <t>2024-05-07T09:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-07T09:20:42+00:00</t>
+    <t>2024-05-07T13:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
